--- a/data-raw/texts/AGR_TXT/DESTA_TXT.xlsx
+++ b/data-raw/texts/AGR_TXT/DESTA_TXT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/128GB/PANARCHIC/manytrade data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DBFF67-8053-5448-8B33-DDE71037F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACBDF5-3FF5-7641-A667-184A56EA4FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2EBF81AD-632B-854A-A9EC-C64523CEF580}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="1848">
   <si>
     <t>manyID</t>
   </si>
@@ -4359,9 +4359,6 @@
     <t>https://www.trade.gov.tr/data/5b9109cc13b8770becf1e66c/2.%20Turkey-Serbia%20FTA-main%20text.pdf</t>
   </si>
   <si>
-    <t>Signed 14 May 2010</t>
-  </si>
-  <si>
     <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:22009A1016(01)&amp;from=EN</t>
   </si>
   <si>
@@ -4839,18 +4836,12 @@
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/780200/CS_Swiss_4.2019_FTA.pdf</t>
   </si>
   <si>
-    <t>No soft copy? https://discovery.nationalarchives.gov.uk/details/r/C3529866</t>
-  </si>
-  <si>
     <t>https://mea.gov.in/bilateral-documents.htm?dtl/5242/treaty+or+perpetual+p</t>
   </si>
   <si>
     <t>https://eur-lex.europa.eu/legal-content/FR/TXT/PDF/?uri=CELEX:11951K/TXT&amp;from=EN</t>
   </si>
   <si>
-    <t>French; https://eur-lex.europa.eu/LexUriServ/LexUriServ.do?uri=CELEX:11951K:EN:PDF (Draft English)</t>
-  </si>
-  <si>
     <t>http://extwprlegs1.fao.org/docs/pdf/jor62836.pdf</t>
   </si>
   <si>
@@ -4872,13 +4863,7 @@
     <t>http://www.sice.oas.org/tpd/usa_cafta/CAFTAfinal/CAFTAind_e.asp</t>
   </si>
   <si>
-    <t>TEXT'</t>
-  </si>
-  <si>
     <t>https://wipolex.wipo.int/en/text/242222</t>
-  </si>
-  <si>
-    <t>French; https://wipolex.wipo.int/en/text/242221 (unofficial English translation)</t>
   </si>
   <si>
     <t>https://www.wto.org/gatt_docs/English/SULPDF/90760372.pdf</t>
@@ -4936,16 +4921,10 @@
 https://investmentpolicy.unctad.org/international-investment-agreements/treaty-files/2487/download</t>
   </si>
   <si>
-    <t>Egypt India Yugoslavia</t>
-  </si>
-  <si>
     <t>https://www.wto.org/gatt_docs/English/SULPDF/90830169.pdf</t>
   </si>
   <si>
     <t>https://caricom.org/documents/legaldocuments/9240-treaty-oecs.htm</t>
-  </si>
-  <si>
-    <t>https://eur-lex.europa.eu/legal-content/FR/TXT/PDF/?uri=OJ:L:1970:282:FULL&amp;from=en (French original)</t>
   </si>
   <si>
     <t>https://docs.wto.org/gattdocs/q/GG/L3799/3227.PDF</t>
@@ -5078,6 +5057,558 @@
   </si>
   <si>
     <t>https://almeezan.qa/DownloadPDFAgreementPage.aspx?Target=All&amp;type=2&amp;agrID=968&amp;language=en</t>
+  </si>
+  <si>
+    <t>https://www.treaty-accord.gc.ca/text-texte.aspx?id=101178</t>
+  </si>
+  <si>
+    <t>https://www.customs.gov.sa/themes/custom/customs/files/agreements/istanbul/en.pdf</t>
+  </si>
+  <si>
+    <t>pdf p.69-170</t>
+  </si>
+  <si>
+    <t>https://treaties.un.org/doc/Publication/UNTS/Volume%202314/v2314.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/apr/es/apr09/APR_009.pdf</t>
+  </si>
+  <si>
+    <t>Different EOF date</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace01/web/ACE_01_0_acuerdo.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/02/A25TM_002.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/03/A25TM_003.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/2a69df0b8ab9150c032575d20054bd5d?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/01/A25TM_001.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/12/A25TM_012.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/11/A25TM_011.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/13/A25TM_013.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/14/A25TM_014.pdf</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/apr/es/apr28/APR_028.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace08/ACE_008.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/08/A25TM_008.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/05/A25TM_005.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/09/A25TM_009_Rectificado.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/19/A25TM_019.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace11/ACE_011.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace10/ACE_010.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace04/ACE_004.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/vencr/ind.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/vensal/indice.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/venhon/indice.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/BRA_UR/BRA_UR_ind_s.asp</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=CELEX:11986U/TXT&amp;qid=1645607363245&amp;from=EN</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/15/A25TM_015.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/a0942a89c163c90a0325767f00553f98?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/vennic/vennic.asp</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/18/A25TM_018.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/17/A25TM_017.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace12/ACE_012.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace09/ACE_009.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dfat.gov.au/sites/default/files/215.pdf</t>
+  </si>
+  <si>
+    <t>https://www.international.gc.ca/trade-commerce/assets/pdfs/agreements-accords/cusfta-e.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=OJ:JOL_1990_374_R_0016_01&amp;qid=1645609866422&amp;from=EN</t>
+  </si>
+  <si>
+    <t>Different Beg</t>
+  </si>
+  <si>
+    <t>https://edit.wti.org/document/show/pdf/ba140599-d4ec-4153-a4f0-8a1ad402021b</t>
+  </si>
+  <si>
+    <t>https://edit.wti.org/app.php/document/show/pdf/8d06c317-68f1-4ce7-84f7-d07045e87330</t>
+  </si>
+  <si>
+    <t>https://edit.wti.org/app.php/document/show/pdf/8a201121-e8e8-4722-9657-9db3ef9f46ee</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/ventt/ventt.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/ARG_BRA/ARGBRA_ind_s.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/vengu/indice.asp</t>
+  </si>
+  <si>
+    <t>https://www.sars.gov.za/wp-content/uploads/Legal/Agreements/LAPD-IntA-TradeA-2012-02-Trade-Agreement-RSA-Malawi-20-June-1990.pdf</t>
+  </si>
+  <si>
+    <t>https://au.int/sites/default/files/treaties/37636-treaty-0016_-_treaty_establishing_the_african_economic_community_e.pdf</t>
+  </si>
+  <si>
+    <t>https://treaties.un.org/doc/Publication/UNTS/No%20Volume/55375/Part/I-55375-0800000280526ec1.pdf</t>
+  </si>
+  <si>
+    <t>http://www.austlii.edu.au/au/other/dfat/treaties/1991/37.html</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace15/ACE_015.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/sica/PDF/TegProtODECA91_e.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21994A1231(34)&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21991A1231(01)&amp;qid=1645625570038&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://docs.wto.org/gattdocs/q/GG/L7199/7036.PDF</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/66370cd713fc22dc032573470067cf4a?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/CARICOM-Venezuela.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cvce.eu/en/obj/central_european_free_trade_agreement_krakow_21_december_1992-en-0b71b87b-bdfd-4a9c-a239-aa64cb337dcc.html</t>
+  </si>
+  <si>
+    <t>https://docs.wto.org/gattdocs/q/GG/L7399/7212A1.PDF</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:11992M/TXT&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://docs.wto.org/gattdocs/q/GG/L7199/7130A1.PDF</t>
+  </si>
+  <si>
+    <t>https://docs.wto.org/gattdocs/q/GG/L7199/7104A1.PDF</t>
+  </si>
+  <si>
+    <t>https://docs.wto.org/gattdocs/q/GG/L7399/7223A1.PDF</t>
+  </si>
+  <si>
+    <t>http://extwprlegs1.fao.org/docs/pdf/jor62840.pdf</t>
+  </si>
+  <si>
+    <t>http://extwprlegs1.fao.org/docs/pdf/jor62842.pdf</t>
+  </si>
+  <si>
+    <t>http://extwprlegs1.fao.org/docs/pdf/jor62839.pdf</t>
+  </si>
+  <si>
+    <t>https://www.congress.gov/103/statute/STATUTE-107/STATUTE-107-Pg2057.pdf</t>
+  </si>
+  <si>
+    <t>http://rtais.wto.org/rtadocs/834/TOA/English/RF-Tajikistan%20FTA_text%20%20with%20protocols.doc</t>
+  </si>
+  <si>
+    <t>https://edit.wti.org/app.php/document/show/pdf/2c99ba40-f4eb-4765-b29a-8a0f5be0f08e</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace21/ACE_021.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/73c1494893b866e7032576f000518364?OpenDocument</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21994A1231(24)&amp;qid=1645695239615&amp;from=EN</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/sica/PDF/Prot.Guatemala93.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/colpan/colpan_s.asp</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21993A0309(01)&amp;qid=1645697082283&amp;from=EN</t>
+  </si>
+  <si>
+    <t>http://www.syrleb.org/SD08/msf/1507751474_.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.wto.org/gattdocs/q/GG/L7599/7448A1.PDF</t>
+  </si>
+  <si>
+    <t>https://treaties.un.org/doc/Publication/UNTS/Volume%201895/v1895.pdf</t>
+  </si>
+  <si>
+    <t>pdf p.3-46</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace26/ACE_026.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/ac1ece6c2b39eaae03257762005e9426?OpenDocument</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/0fabed1dd29835530325776800522237?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ace/es/ace27/ACE_027.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/caricome.asp</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/4b9689cfa1c0ecd2032576ef004ff1fc?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/33/A25TM_033.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/30/A25TM_030.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21994A1231(43)&amp;qid=1645704336081&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21994A1231(46)&amp;qid=1645704336081&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/eb3ddafa0048e66f03257766005e8666?OpenDocument</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/df902d406d98803e03256fef0052c994?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/go3/G3_FullText.zip</t>
+  </si>
+  <si>
+    <t>https://mfa.gov.il/MFA/ForeignPolicy/Peace/Guide/Pages/Gaza-Jericho%20Agreement%20Annex%20IV%20-%20Economic%20Protoco.aspx</t>
+  </si>
+  <si>
+    <t>http://agreement.asean.org/media/download/20201111045141.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/MRCSBO/MERBO_S.ASP</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/34/A25TM_034.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/32/A25TM_032.pdf</t>
+  </si>
+  <si>
+    <t>http://www2.aladi.org/biblioteca/publicaciones/aladi/acuerdos/ART_25/es/35/A25TM_035.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21998A0309(01)&amp;qid=1645777565206&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:22000A0621(01)&amp;qid=1645777622663&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21998A0202(01)&amp;qid=1645777685071&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21998A0220(01)&amp;qid=1645777735923&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21998A0330(01)&amp;qid=1645777780051&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://www.wto.org/english/thewto_e/acc_e/ukr_e/wtaccukr52_leg_10.pdf</t>
+  </si>
+  <si>
+    <t>https://www.wto.org/english/thewto_e/acc_e/ukr_e/wtaccukr52_leg_16.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tradezimbabwe.com/wp-content/uploads/2016/03/Statutory-Instrument-103-of-1995-Zimbabwe-Malawi-1.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/Junac/Carta_Ag/Trujillo.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/MSCH/MSCHIND.asp</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:21999A0226(01)&amp;qid=1645781357937&amp;from=EN</t>
+  </si>
+  <si>
+    <t>pdf pp.139-200</t>
+  </si>
+  <si>
+    <t>https://treaties.un.org/doc/Publication/UNTS/Volume%201995/v1995.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/Junac/Carta_Ag/sucre_e.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/trade/ccme/PROTOCOL2.asp</t>
+  </si>
+  <si>
+    <t>http://rtais.wto.org/rtadocs/16/TOA/English/Pan-Arab%20Free%20Trade%20Area%20Agreement%20(1997).pdf</t>
+  </si>
+  <si>
+    <t>pdf pp.187-226</t>
+  </si>
+  <si>
+    <t>https://treaties.un.org/doc/Publication/UNTS/Volume%202075/v2075.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/Ccdr/English/Act2001-10_e.pdf</t>
+  </si>
+  <si>
+    <t>https://likumi.lv/ta/en/starptautiskie-ligumi/id/866-agreement-between-the-republic-of-latvia-and-ukraine-on-trade-in-agricultural-products</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/41051094785864d1032578920051e498?OpenDocument</t>
+  </si>
+  <si>
+    <t>https://treaties.un.org/doc/Publication/UNTS/Volume%202121/v2121.pdf</t>
+  </si>
+  <si>
+    <t>pdf pp.109-130</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/44213f8f9067d3170325763300684570?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/CAN/agreauto_e.asp</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:11997D/TXT&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/3d13638d02617fdb032573fa006c2ffb?OpenDocument</t>
+  </si>
+  <si>
+    <t>https://www2.aladi.org/nsfaladi/histtextacdos.nsf/f88cf0ec27a4b651032576790064fc05/a594dcb1616661bb03257633006862dc?OpenDocument</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/mextnorte/TNorte_FullText.zip</t>
+  </si>
+  <si>
+    <t>http://rtais.wto.org/rtadocs/858/TOA/English/Russia-Yugoslavia%20FTA_text%20with%20protocols_Republic%20of%20Serbia.doc</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/BRA_GUY/Text_s.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:22005A0128(01)&amp;qid=1646036678829&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://www.efta.int/media/documents/legal-texts/free-trade-relations/croatia/EFTA-Croatia%20Free%20Trade%20Agreement.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:12001C/TXT&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://unmik.unmissions.org/sites/default/files/regulations/02english/IAE/IAE2003_01.pdf</t>
+  </si>
+  <si>
+    <t>https://unmik.unmissions.org/sites/default/files/regulations/02english/IAE/IAE2005_01.pdf</t>
+  </si>
+  <si>
+    <t>https://wipolex.wipo.int/en/text/238698</t>
+  </si>
+  <si>
+    <t>https://edit.wti.org/document/show/pdf/073b2e1d-6dc8-4e42-a179-d87ccebd3fc2</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/arguru/ACE57_text_s.asp</t>
+  </si>
+  <si>
+    <t>http://fta.mofcom.gov.cn/pakistan/xieyi/fta_xieyi_en.pdf</t>
+  </si>
+  <si>
+    <t>Different Beg and EOF date</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/mrcsrac/eca_s.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/TPD/USA_CAFTA/CAFTAfinal/CAFTAind_e.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.sice.oas.org/TPD/G_3/Decisiones/dec42_s.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/MRSRSACU/Text_2008_e.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/BRA_SUR/Text_s.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/MRCSRPerACE58/ACE.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/CHL_Asia_e/mainAgreemt_e.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/PER_THA_FTA/Protocolo_IN.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/BLZ_GTM/BLZ_GTM_PSA_e.pdf</t>
+  </si>
+  <si>
+    <t>https://developing8.org/download-file-by-url.php?file_url=image/Otherdocument/4841040.doc</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:12007L/TXT&amp;from=EN</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/legal-content/EN/TXT/HTML/?uri=CELEX:22010A0429(01)&amp;qid=1646049004998&amp;from=EN</t>
+  </si>
+  <si>
+    <t>http://www.moit.gov.mw/index.php/policies-strategies-regulations/treaties-agreements</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/chilec/AAP65_ALADI.pdf</t>
+  </si>
+  <si>
+    <t>http://agreement.asean.org/media/download/20140119034633.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/TPD/CHL_MER/Implementation/Protocols/CHL_MER_Trade_Serv_s.pdf</t>
+  </si>
+  <si>
+    <t>https://www.efta.int/media/documents/legal-texts/free-trade-relations/gulf-cooperation-council-GCC/EFTA-GCC%20Free%20Trade%20Agreement.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eacj.org//wp-content/uploads/2012/08/Common-Market-Protocol.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/trade/MER_EGY/MER_EGY_e.asp</t>
+  </si>
+  <si>
+    <t>https://www.state.gov/wp-content/uploads/2019/02/12-315-Rep-of-Korea-Environment-Cooperation.pdf</t>
+  </si>
+  <si>
+    <t>https://2009-2017.state.gov/documents/organization/189455.pdf</t>
+  </si>
+  <si>
+    <t>https://alianzapacifico.net/descarga-documentos-alcaps/</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/TPD/PER_VEN/Texts/Text_s.pdf</t>
+  </si>
+  <si>
+    <t>https://2009-2017.state.gov/documents/organization/207971.pdf</t>
+  </si>
+  <si>
+    <t>https://2009-2017.state.gov/e/oes/eqt/trade/207758.htm</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/TPD/PAN_TTO/Text_e.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/CAN_KOR/English/CAN_KOR_index_e.asp</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/PAN_ISR/PAN_ISR_index_e.asp</t>
+  </si>
+  <si>
+    <t>https://www.eac.int/index.php?option=com_documentmananger&amp;task=download.document&amp;file=bWFpbl9kb2N1bWVudHNfcGRmX2VjeGpYamxNQndNZEVJdGJQaU5LVkRNc2lnbmVkLXRmdGEtYWdyZWVtZW50LWFuZC1kZWNsYXJhdGlvbi1qdW5lLTIwMTU=&amp;counter=180</t>
+  </si>
+  <si>
+    <t>https://www.dfat.gov.au/sites/default/files/agreement-to-amend-the-singapore-australia-free-trade-agreement.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/COL_MER/ACE_COL_MER_s.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/PAR_TWN/PAR_TWN_ECA_e.pdf</t>
+  </si>
+  <si>
+    <t>https://au.int/sites/default/files/treaties/36437-treaty-consolidated_text_on_cfta_-_en.pdf</t>
+  </si>
+  <si>
+    <t>https://www.efta.int/sites/default/files/documents/legal-texts/free-trade-relations/turkey/EFTA-Turkey-Main-Agreement-2018.pdf</t>
+  </si>
+  <si>
+    <t>https://www.trade.gov.tr/data/6188cfc913b87662d81ee7f7/BIH-TR%20FTA-%20signed-%20EN.docx</t>
+  </si>
+  <si>
+    <t>https://www.tid.gov.hk/english/ita/fta/hkaufta/text_agreement.html</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/808914/MS_22.2019_Andean_Trade.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dfat.gov.au/trade/agreements/not-yet-in-force/aukfta/official-text</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/782493/CS_Liechtenstein_1.2019_Trade.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mfat.govt.nz/assets/Trade-agreements/UK-NZ-FTA/NZ-UK-Free-Trade-Agreement.pdf</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/787355/MS_15.2019i_Pacific_States_Eco_Partner.pdf</t>
+  </si>
+  <si>
+    <t>http://www.sice.oas.org/Trade/BRA_PAR/BRA_PAR_ACE_74_s.pdf</t>
+  </si>
+  <si>
+    <t>https://eur-lex.europa.eu/LexUriServ/LexUriServ.do?uri=CELEX:11951K:EN:PDF (English Draft)</t>
+  </si>
+  <si>
+    <t>https://wipolex.wipo.int/en/text/242221 (unofficial English translation)</t>
   </si>
 </sst>
 </file>
@@ -5456,11 +5987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124AB8FC-2BA3-0047-AE15-0F0E5C910EBE}">
-  <dimension ref="A1:I799"/>
+  <dimension ref="A1:J799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J674" sqref="J674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5475,7 +6006,7 @@
     <col min="8" max="8" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5500,8 +6031,11 @@
       <c r="I1" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5523,11 +6057,8 @@
       <c r="G2">
         <v>663</v>
       </c>
-      <c r="I2" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5550,10 +6081,10 @@
         <v>707</v>
       </c>
       <c r="H3" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5576,7 +6107,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5599,13 +6130,16 @@
         <v>436</v>
       </c>
       <c r="H5" t="s">
-        <v>1594</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1592</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5628,13 +6162,13 @@
         <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1593</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5657,10 +6191,10 @@
         <v>695</v>
       </c>
       <c r="H7" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5683,10 +6217,10 @@
         <v>783</v>
       </c>
       <c r="H8" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5709,10 +6243,10 @@
         <v>784</v>
       </c>
       <c r="H9" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5735,7 +6269,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5758,7 +6292,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5781,13 +6315,13 @@
         <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>1601</v>
-      </c>
-      <c r="I12" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J12" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5810,7 +6344,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5833,7 +6367,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5856,13 +6390,11 @@
         <v>189</v>
       </c>
       <c r="H15" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1599</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5885,10 +6417,13 @@
         <v>706</v>
       </c>
       <c r="H16" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1605</v>
+        <v>1600</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5960,7 +6495,7 @@
         <v>422</v>
       </c>
       <c r="H19" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -6009,7 +6544,7 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -6107,10 +6642,10 @@
         <v>680</v>
       </c>
       <c r="H25" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="I25" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6159,7 +6694,7 @@
         <v>311</v>
       </c>
       <c r="H27" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6208,7 +6743,7 @@
         <v>460</v>
       </c>
       <c r="H29" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6257,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6283,10 +6818,10 @@
         <v>29</v>
       </c>
       <c r="H32" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6309,13 +6844,13 @@
         <v>533</v>
       </c>
       <c r="H33" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1609</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6338,7 +6873,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6361,10 +6896,10 @@
         <v>357</v>
       </c>
       <c r="H35" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6387,10 +6922,10 @@
         <v>452</v>
       </c>
       <c r="H36" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6413,10 +6948,10 @@
         <v>689</v>
       </c>
       <c r="H37" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6439,7 +6974,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6462,7 +6997,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6485,10 +7020,10 @@
         <v>664</v>
       </c>
       <c r="H40" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6511,7 +7046,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6534,10 +7069,10 @@
         <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6560,7 +7095,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6583,10 +7118,10 @@
         <v>179</v>
       </c>
       <c r="H44" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6609,10 +7144,10 @@
         <v>180</v>
       </c>
       <c r="H45" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6635,7 +7170,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6658,7 +7193,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6681,7 +7216,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6704,7 +7239,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6727,7 +7262,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6750,10 +7285,10 @@
         <v>901</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6776,7 +7311,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6799,7 +7334,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6822,7 +7357,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6844,11 +7379,8 @@
       <c r="G55">
         <v>682</v>
       </c>
-      <c r="I55" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6871,7 +7403,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6894,7 +7426,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6917,13 +7449,11 @@
         <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1619</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6946,10 +7476,10 @@
         <v>333</v>
       </c>
       <c r="H59" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6972,10 +7502,10 @@
         <v>353</v>
       </c>
       <c r="H60" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6998,10 +7528,10 @@
         <v>669</v>
       </c>
       <c r="H61" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7024,13 +7554,13 @@
         <v>690</v>
       </c>
       <c r="H62" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I62" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J62" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7053,7 +7583,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7076,10 +7606,10 @@
         <v>26</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7102,10 +7632,10 @@
         <v>314</v>
       </c>
       <c r="H65" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7128,10 +7658,10 @@
         <v>329</v>
       </c>
       <c r="H66" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7154,10 +7684,10 @@
         <v>348</v>
       </c>
       <c r="H67" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7180,10 +7710,10 @@
         <v>357</v>
       </c>
       <c r="H68" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7206,10 +7736,10 @@
         <v>357</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7235,7 +7765,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7258,7 +7788,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7281,10 +7811,10 @@
         <v>85</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7307,10 +7837,10 @@
         <v>117</v>
       </c>
       <c r="H73" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7333,7 +7863,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7356,7 +7886,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7379,10 +7909,10 @@
         <v>338</v>
       </c>
       <c r="H76" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7405,10 +7935,10 @@
         <v>349</v>
       </c>
       <c r="H77" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7431,7 +7961,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7454,10 +7984,10 @@
         <v>171</v>
       </c>
       <c r="H79" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7480,13 +8010,13 @@
         <v>249</v>
       </c>
       <c r="H80" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I80" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J80" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7509,13 +8039,13 @@
         <v>249</v>
       </c>
       <c r="H81" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I81" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J81" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7538,10 +8068,10 @@
         <v>356</v>
       </c>
       <c r="H82" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7564,10 +8094,10 @@
         <v>356</v>
       </c>
       <c r="H83" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7590,10 +8120,10 @@
         <v>633</v>
       </c>
       <c r="H84" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7616,7 +8146,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7639,7 +8169,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7662,10 +8192,10 @@
         <v>780</v>
       </c>
       <c r="H87" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7688,10 +8218,10 @@
         <v>151</v>
       </c>
       <c r="H88" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7714,10 +8244,10 @@
         <v>290</v>
       </c>
       <c r="H89" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7740,10 +8270,10 @@
         <v>447</v>
       </c>
       <c r="H90" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7766,10 +8296,10 @@
         <v>469</v>
       </c>
       <c r="H91" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7792,7 +8322,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7815,10 +8345,10 @@
         <v>311</v>
       </c>
       <c r="H93" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7841,10 +8371,10 @@
         <v>311</v>
       </c>
       <c r="H94" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7867,10 +8397,10 @@
         <v>315</v>
       </c>
       <c r="H95" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7893,7 +8423,7 @@
         <v>366</v>
       </c>
       <c r="H96" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -7919,7 +8449,7 @@
         <v>446</v>
       </c>
       <c r="H97" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -7968,7 +8498,7 @@
         <v>584</v>
       </c>
       <c r="H99" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -8017,10 +8547,10 @@
         <v>16</v>
       </c>
       <c r="H101" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="I101" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -8046,10 +8576,10 @@
         <v>332</v>
       </c>
       <c r="H102" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="I102" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -8075,7 +8605,7 @@
         <v>338</v>
       </c>
       <c r="H103" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -8101,7 +8631,7 @@
         <v>338</v>
       </c>
       <c r="H104" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -8127,10 +8657,10 @@
         <v>352</v>
       </c>
       <c r="H105" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="I105" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -8156,7 +8686,7 @@
         <v>365</v>
       </c>
       <c r="H106" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -8182,7 +8712,7 @@
         <v>450</v>
       </c>
       <c r="H107" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -8231,7 +8761,7 @@
         <v>65</v>
       </c>
       <c r="H109" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -8257,10 +8787,10 @@
         <v>302</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="I110" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -8286,10 +8816,10 @@
         <v>317</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="I111" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -8315,13 +8845,13 @@
         <v>322</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="I112" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8344,7 +8874,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8367,7 +8897,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8390,7 +8920,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8412,8 +8942,11 @@
       <c r="G116">
         <v>585</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8436,10 +8969,10 @@
         <v>359</v>
       </c>
       <c r="H117" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8462,13 +8995,13 @@
         <v>532</v>
       </c>
       <c r="H118" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="I118" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8491,7 +9024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8513,8 +9046,11 @@
       <c r="G120">
         <v>167</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8537,7 +9073,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8560,7 +9096,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8582,8 +9118,11 @@
       <c r="G123">
         <v>496</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8606,10 +9145,10 @@
         <v>638</v>
       </c>
       <c r="H124" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8632,7 +9171,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8654,8 +9193,14 @@
       <c r="G126">
         <v>247</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8677,8 +9222,17 @@
       <c r="G127">
         <v>699</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8701,7 +9255,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8723,8 +9277,14 @@
       <c r="G129">
         <v>772</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8747,7 +9307,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8769,8 +9329,17 @@
       <c r="G131">
         <v>37</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8792,8 +9361,17 @@
       <c r="G132">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8819,7 +9397,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8841,8 +9419,17 @@
       <c r="G134">
         <v>214</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8865,7 +9452,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8890,11 +9477,11 @@
       <c r="H136" t="s">
         <v>1385</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8917,7 +9504,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8940,7 +9527,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8962,8 +9549,17 @@
       <c r="G139">
         <v>712</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8985,14 +9581,14 @@
       <c r="G140">
         <v>766</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9014,8 +9610,17 @@
       <c r="G141">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9037,8 +9642,14 @@
       <c r="G142">
         <v>40</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9061,7 +9672,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9083,8 +9694,14 @@
       <c r="G144">
         <v>235</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9106,8 +9723,14 @@
       <c r="G145">
         <v>236</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9129,8 +9752,14 @@
       <c r="G146">
         <v>237</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9153,7 +9782,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9175,8 +9804,11 @@
       <c r="G148">
         <v>586</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9199,7 +9831,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9222,7 +9854,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9245,7 +9877,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9267,8 +9899,14 @@
       <c r="G152">
         <v>217</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9290,8 +9928,17 @@
       <c r="G153">
         <v>268</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9316,11 +9963,11 @@
       <c r="H154" t="s">
         <v>1389</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9343,7 +9990,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9366,7 +10013,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9389,7 +10036,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9411,8 +10058,14 @@
       <c r="G158">
         <v>477</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9434,8 +10087,17 @@
       <c r="G159">
         <v>610</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H159" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9457,8 +10119,14 @@
       <c r="G160">
         <v>613</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9481,7 +10149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9506,11 +10174,11 @@
       <c r="H162" t="s">
         <v>1390</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9532,8 +10200,17 @@
       <c r="G163">
         <v>48</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H163" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9555,8 +10232,14 @@
       <c r="G164">
         <v>144</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H164" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9578,8 +10261,14 @@
       <c r="G165">
         <v>251</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H165" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9601,8 +10290,11 @@
       <c r="G166">
         <v>293</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H166" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9624,8 +10316,11 @@
       <c r="G167">
         <v>293</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9647,8 +10342,17 @@
       <c r="G168">
         <v>417</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H168" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9671,7 +10375,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9693,8 +10397,14 @@
       <c r="G170">
         <v>421</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H170" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9716,8 +10426,14 @@
       <c r="G171">
         <v>480</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H171" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9739,8 +10455,14 @@
       <c r="G172">
         <v>525</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9763,7 +10485,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9785,8 +10507,14 @@
       <c r="G174">
         <v>615</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H174" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9808,8 +10536,14 @@
       <c r="G175">
         <v>635</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9832,7 +10566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9855,7 +10589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9877,8 +10611,14 @@
       <c r="G178">
         <v>271</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H178" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9900,8 +10640,11 @@
       <c r="G179">
         <v>274</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H179" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9923,8 +10666,17 @@
       <c r="G180">
         <v>767</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H180" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9946,8 +10698,17 @@
       <c r="G181">
         <v>33</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H181" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9969,8 +10730,14 @@
       <c r="G182">
         <v>36</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H182" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9992,8 +10759,14 @@
       <c r="G183">
         <v>46</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H183" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10015,8 +10788,11 @@
       <c r="G184">
         <v>77</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H184" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10038,8 +10814,11 @@
       <c r="G185">
         <v>77</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H185" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10062,7 +10841,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10084,8 +10863,11 @@
       <c r="G187">
         <v>169</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H187" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10107,8 +10889,17 @@
       <c r="G188">
         <v>231</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H188" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10131,7 +10922,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10157,7 +10948,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10180,7 +10971,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10203,7 +10994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10225,15 +11016,21 @@
       <c r="G193">
         <v>28</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>359</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D194">
@@ -10249,7 +11046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10272,7 +11069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10295,7 +11092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10318,7 +11115,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10341,7 +11138,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10364,7 +11161,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10386,8 +11183,11 @@
       <c r="G200">
         <v>587</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10409,8 +11209,14 @@
       <c r="G201">
         <v>681</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10432,8 +11238,14 @@
       <c r="G202">
         <v>34</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10456,7 +11268,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10478,8 +11290,14 @@
       <c r="G204">
         <v>476</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10502,7 +11320,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10525,7 +11343,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10547,8 +11365,11 @@
       <c r="G207">
         <v>762</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10570,8 +11391,14 @@
       <c r="G208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H208" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10594,7 +11421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10616,8 +11443,11 @@
       <c r="G210">
         <v>80</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H210" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10639,8 +11469,14 @@
       <c r="G211">
         <v>126</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H211" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10662,8 +11498,11 @@
       <c r="G212">
         <v>190</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H212" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10686,7 +11525,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10708,8 +11547,11 @@
       <c r="G214">
         <v>280</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H214" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10731,8 +11573,11 @@
       <c r="G215">
         <v>308</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H215" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10758,7 +11603,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10781,7 +11626,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10803,8 +11648,14 @@
       <c r="G218">
         <v>430</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H218" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10826,8 +11677,14 @@
       <c r="G219">
         <v>580</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H219" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10850,14 +11707,14 @@
         <v>790</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>404</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D221">
@@ -10873,7 +11730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10896,7 +11753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10922,7 +11779,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10945,7 +11802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10968,7 +11825,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10991,7 +11848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11013,8 +11870,11 @@
       <c r="G227">
         <v>178</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H227" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11036,8 +11896,11 @@
       <c r="G228">
         <v>192</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H228" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11060,7 +11923,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11082,8 +11945,11 @@
       <c r="G230">
         <v>287</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H230" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11105,8 +11971,11 @@
       <c r="G231">
         <v>327</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H231" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11128,8 +11997,11 @@
       <c r="G232">
         <v>425</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H232" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11151,8 +12023,11 @@
       <c r="G233">
         <v>427</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H233" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11174,8 +12049,11 @@
       <c r="G234">
         <v>431</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H234" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11201,7 +12079,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11224,7 +12102,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11246,8 +12124,11 @@
       <c r="G237">
         <v>448</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H237" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11269,8 +12150,11 @@
       <c r="G238">
         <v>449</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H238" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11292,8 +12176,14 @@
       <c r="G239">
         <v>526</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H239" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11315,8 +12205,14 @@
       <c r="G240">
         <v>528</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H240" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11339,7 +12235,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11361,8 +12257,11 @@
       <c r="G242">
         <v>564</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H242" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11384,8 +12283,11 @@
       <c r="G243">
         <v>568</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H243" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11407,8 +12309,11 @@
       <c r="G244">
         <v>569</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H244" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11430,8 +12335,11 @@
       <c r="G245">
         <v>576</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H245" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11453,8 +12361,11 @@
       <c r="G246">
         <v>581</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H246" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11480,7 +12391,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11502,8 +12413,11 @@
       <c r="G248">
         <v>636</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H248" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11525,8 +12439,11 @@
       <c r="G249">
         <v>652</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H249" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11552,7 +12469,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11578,7 +12495,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11600,8 +12517,11 @@
       <c r="G252">
         <v>671</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H252" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11624,7 +12544,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11647,7 +12567,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11669,8 +12589,17 @@
       <c r="G255">
         <v>41</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H255" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11693,7 +12622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11716,7 +12645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11738,8 +12667,17 @@
       <c r="G258">
         <v>142</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H258" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11761,8 +12699,11 @@
       <c r="G259">
         <v>148</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H259" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11785,7 +12726,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11807,8 +12748,14 @@
       <c r="G261">
         <v>186</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H261" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11830,8 +12777,14 @@
       <c r="G262">
         <v>186</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H262" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11853,8 +12806,14 @@
       <c r="G263">
         <v>240</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H263" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11877,7 +12836,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11899,8 +12858,11 @@
       <c r="G265">
         <v>305</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H265" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11926,7 +12888,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11948,8 +12910,11 @@
       <c r="G267">
         <v>572</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H267" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11975,7 +12940,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11998,7 +12963,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12021,7 +12986,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12043,8 +13008,11 @@
       <c r="G271">
         <v>659</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H271" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12070,7 +13038,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12093,7 +13061,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12119,7 +13087,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12142,7 +13110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12164,8 +13132,14 @@
       <c r="G276">
         <v>63</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H276" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12187,8 +13161,14 @@
       <c r="G277">
         <v>118</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H277" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J277" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12210,8 +13190,17 @@
       <c r="G278">
         <v>124</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H278" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12233,8 +13222,14 @@
       <c r="G279">
         <v>125</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H279" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J279" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12256,8 +13251,14 @@
       <c r="G280">
         <v>145</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H280" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J280" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12279,8 +13280,11 @@
       <c r="G281">
         <v>172</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H281" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12303,7 +13307,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12325,8 +13329,11 @@
       <c r="G283">
         <v>203</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H283" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12348,8 +13355,11 @@
       <c r="G284">
         <v>232</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H284" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12375,7 +13385,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12397,8 +13407,11 @@
       <c r="G286">
         <v>272</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H286" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12421,7 +13434,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12443,8 +13456,11 @@
       <c r="G288">
         <v>319</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H288" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12466,8 +13482,11 @@
       <c r="G289">
         <v>325</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H289" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12493,7 +13512,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12515,8 +13534,17 @@
       <c r="G291">
         <v>373</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H291" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J291" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12538,8 +13566,17 @@
       <c r="G292">
         <v>374</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H292" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J292" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -12561,8 +13598,14 @@
       <c r="G293">
         <v>464</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H293" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J293" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -12585,7 +13628,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -12607,8 +13650,11 @@
       <c r="G295">
         <v>510</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H295" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -12631,7 +13677,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12654,10 +13700,10 @@
         <v>688</v>
       </c>
       <c r="H297" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12680,7 +13726,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12703,14 +13749,14 @@
         <v>908</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>549</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="4" t="s">
         <v>550</v>
       </c>
       <c r="D300">
@@ -12725,8 +13771,11 @@
       <c r="G300">
         <v>65</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H300" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12748,15 +13797,18 @@
       <c r="G301">
         <v>65</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H301" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>551</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="4" t="s">
         <v>552</v>
       </c>
       <c r="D302">
@@ -12772,7 +13824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12795,7 +13847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12817,8 +13869,17 @@
       <c r="G304">
         <v>120</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H304" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12840,8 +13901,17 @@
       <c r="G305">
         <v>122</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H305" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J305" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12864,7 +13934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12887,7 +13957,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12909,8 +13979,14 @@
       <c r="G308">
         <v>264</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H308" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J308" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12932,8 +14008,14 @@
       <c r="G309">
         <v>276</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H309" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12956,7 +14038,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12978,8 +14060,11 @@
       <c r="G311">
         <v>306</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H311" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13001,8 +14086,11 @@
       <c r="G312">
         <v>316</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H312" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13024,8 +14112,11 @@
       <c r="G313">
         <v>320</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H313" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13047,8 +14138,11 @@
       <c r="G314">
         <v>326</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H314" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13070,8 +14164,11 @@
       <c r="G315">
         <v>354</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H315" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13097,7 +14194,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13120,7 +14217,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13143,7 +14240,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13166,7 +14263,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -13189,7 +14286,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -13211,8 +14308,11 @@
       <c r="G321">
         <v>571</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H321" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -13235,7 +14335,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -13257,8 +14357,11 @@
       <c r="G323">
         <v>622</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H323" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -13281,7 +14384,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -13304,7 +14407,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -13327,7 +14430,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -13350,7 +14453,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -13372,8 +14475,11 @@
       <c r="G328">
         <v>763</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H328" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13395,8 +14501,14 @@
       <c r="G329">
         <v>27</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H329" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J329" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13418,8 +14530,14 @@
       <c r="G330">
         <v>27</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H330" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J330" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13442,14 +14560,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>608</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="4" t="s">
         <v>609</v>
       </c>
       <c r="D332">
@@ -13465,7 +14583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13488,7 +14606,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13510,8 +14628,14 @@
       <c r="G334">
         <v>123</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H334" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J334" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13534,7 +14658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13556,8 +14680,14 @@
       <c r="G336">
         <v>209</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H336" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13580,7 +14710,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13603,7 +14733,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13626,7 +14756,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13652,7 +14782,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13674,8 +14804,11 @@
       <c r="G341">
         <v>346</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H341" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13698,7 +14831,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13721,7 +14854,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13744,7 +14877,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13767,7 +14900,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13789,8 +14922,14 @@
       <c r="G346">
         <v>513</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H346" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13813,7 +14952,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13836,7 +14975,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13859,7 +14998,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13882,7 +15021,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13908,7 +15047,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13934,7 +15073,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13957,7 +15096,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13980,7 +15119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -14002,8 +15141,11 @@
       <c r="G355">
         <v>23</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H355" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -14025,8 +15167,11 @@
       <c r="G356">
         <v>23</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H356" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -14049,7 +15194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -14072,7 +15217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -14094,8 +15239,11 @@
       <c r="G359">
         <v>171</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H359" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -14117,8 +15265,11 @@
       <c r="G360">
         <v>171</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H360" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -14141,7 +15292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -14164,7 +15315,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -14187,7 +15338,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14209,8 +15360,11 @@
       <c r="G364">
         <v>300</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H364" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14233,10 +15387,10 @@
         <v>318</v>
       </c>
       <c r="H365" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14258,8 +15412,11 @@
       <c r="G366">
         <v>462</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H366" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14281,8 +15438,14 @@
       <c r="G367">
         <v>481</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H367" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I367" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14374,7 +15537,7 @@
         <v>604</v>
       </c>
       <c r="H371" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
@@ -14400,7 +15563,7 @@
         <v>604</v>
       </c>
       <c r="H372" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
@@ -14563,6 +15726,9 @@
       <c r="G379">
         <v>175</v>
       </c>
+      <c r="H379" t="s">
+        <v>1781</v>
+      </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
@@ -14587,7 +15753,7 @@
         <v>184</v>
       </c>
       <c r="H380" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
@@ -14682,7 +15848,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -14705,7 +15871,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -14728,7 +15894,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -14751,7 +15917,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -14774,7 +15940,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -14796,8 +15962,11 @@
       <c r="G389">
         <v>571</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H389" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -14820,7 +15989,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -14843,7 +16012,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -14866,7 +16035,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -14889,7 +16058,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -14912,7 +16081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -14934,8 +16103,14 @@
       <c r="G395">
         <v>39</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H395" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J395" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -14958,7 +16133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -14980,8 +16155,14 @@
       <c r="G397">
         <v>109</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H397" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I397" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15003,8 +16184,11 @@
       <c r="G398">
         <v>139</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H398" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15027,10 +16211,10 @@
         <v>183</v>
       </c>
       <c r="H399" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15053,7 +16237,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15075,8 +16259,14 @@
       <c r="G401">
         <v>275</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H401" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J401" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15099,7 +16289,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15122,7 +16312,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15145,10 +16335,10 @@
         <v>593</v>
       </c>
       <c r="H404" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15171,7 +16361,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15193,8 +16383,11 @@
       <c r="G406">
         <v>694</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H406" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15216,8 +16409,11 @@
       <c r="G407">
         <v>694</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H407" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15240,7 +16436,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15263,7 +16459,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15286,14 +16482,14 @@
         <v>793</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
       <c r="B411" t="s">
         <v>744</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="4" t="s">
         <v>745</v>
       </c>
       <c r="D411">
@@ -15308,8 +16504,17 @@
       <c r="G411">
         <v>24</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H411" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I411" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J411" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -15332,7 +16537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -15355,7 +16560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -15378,10 +16583,10 @@
         <v>174</v>
       </c>
       <c r="H414" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -15404,7 +16609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -15427,10 +16632,10 @@
         <v>253</v>
       </c>
       <c r="H416" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -15453,7 +16658,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -15478,11 +16683,11 @@
       <c r="H418" t="s">
         <v>1408</v>
       </c>
-      <c r="I418" t="s">
+      <c r="J418" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -15507,11 +16712,11 @@
       <c r="H419" t="s">
         <v>1408</v>
       </c>
-      <c r="I419" t="s">
+      <c r="J419" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -15533,8 +16738,14 @@
       <c r="G420">
         <v>270</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H420" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J420" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -15557,7 +16768,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -15583,7 +16794,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -15606,7 +16817,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -15629,7 +16840,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
@@ -15651,8 +16862,14 @@
       <c r="G425">
         <v>612</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H425" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J425" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
@@ -15674,8 +16891,11 @@
       <c r="G426">
         <v>651</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H426" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
@@ -15698,7 +16918,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
@@ -15720,8 +16940,14 @@
       <c r="G428">
         <v>140</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H428" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J428" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
@@ -15744,10 +16970,10 @@
         <v>177</v>
       </c>
       <c r="H429" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
@@ -15769,8 +16995,11 @@
       <c r="G430">
         <v>254</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H430" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
@@ -15792,8 +17021,11 @@
       <c r="G431">
         <v>255</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H431" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
@@ -15816,7 +17048,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
@@ -15839,10 +17071,10 @@
         <v>304</v>
       </c>
       <c r="H433" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
@@ -15868,7 +17100,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
@@ -15890,8 +17122,11 @@
       <c r="G435">
         <v>335</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H435" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
@@ -15914,10 +17149,10 @@
         <v>375</v>
       </c>
       <c r="H436" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
@@ -15943,7 +17178,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
@@ -15966,7 +17201,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
@@ -15989,10 +17224,10 @@
         <v>474</v>
       </c>
       <c r="H439" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
@@ -16015,7 +17250,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
@@ -16038,7 +17273,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
@@ -16061,7 +17296,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
@@ -16084,7 +17319,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
@@ -16107,7 +17342,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
@@ -16132,11 +17367,11 @@
       <c r="H445" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="I445" t="s">
+      <c r="J445" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
@@ -16159,7 +17394,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
@@ -16182,7 +17417,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
@@ -16205,7 +17440,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
@@ -16228,7 +17463,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
@@ -16251,7 +17486,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
@@ -16274,10 +17509,10 @@
         <v>17</v>
       </c>
       <c r="H451" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
@@ -16300,7 +17535,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
@@ -16323,7 +17558,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
@@ -16346,7 +17581,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
@@ -16369,7 +17604,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
@@ -16394,11 +17629,11 @@
       <c r="H456" t="s">
         <v>1412</v>
       </c>
-      <c r="I456" t="s">
+      <c r="J456" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
@@ -16421,10 +17656,10 @@
         <v>185</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
@@ -16447,10 +17682,10 @@
         <v>202</v>
       </c>
       <c r="H458" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
@@ -16473,7 +17708,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
@@ -16496,10 +17731,10 @@
         <v>323</v>
       </c>
       <c r="H460" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
@@ -16525,7 +17760,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
@@ -16549,7 +17784,7 @@
       </c>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
@@ -16572,10 +17807,10 @@
         <v>605</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
@@ -16598,7 +17833,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
@@ -16621,7 +17856,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>465</v>
       </c>
@@ -16644,7 +17879,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
@@ -16667,7 +17902,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
@@ -16690,7 +17925,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
@@ -16713,7 +17948,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>469</v>
       </c>
@@ -16736,7 +17971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
@@ -16759,7 +17994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
@@ -16781,8 +18016,11 @@
       <c r="G472">
         <v>10</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H472" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
@@ -16804,8 +18042,11 @@
       <c r="G473">
         <v>12</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H473" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
@@ -16828,7 +18069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
@@ -16850,8 +18091,11 @@
       <c r="G475">
         <v>14</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H475" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
@@ -16873,8 +18117,14 @@
       <c r="G476">
         <v>47</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H476" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J476" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
@@ -16897,7 +18147,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
@@ -16920,7 +18170,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
@@ -16943,10 +18193,10 @@
         <v>205</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
@@ -16968,8 +18218,14 @@
       <c r="G480">
         <v>223</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H480" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I480" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
@@ -16992,7 +18248,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
@@ -17015,7 +18271,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
@@ -17038,7 +18294,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
@@ -17061,7 +18317,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>484</v>
       </c>
@@ -17084,7 +18340,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
@@ -17107,7 +18363,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
@@ -17130,7 +18386,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
@@ -17153,10 +18409,10 @@
         <v>976</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
@@ -17182,7 +18438,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
@@ -17204,8 +18460,14 @@
       <c r="G490">
         <v>25</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H490" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J490" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
@@ -17231,7 +18493,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
@@ -17254,7 +18516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
@@ -17277,10 +18539,10 @@
         <v>96</v>
       </c>
       <c r="H493" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
@@ -17303,7 +18565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
@@ -17326,10 +18588,10 @@
         <v>173</v>
       </c>
       <c r="H495" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
@@ -17351,8 +18613,11 @@
       <c r="G496">
         <v>187</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H496" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
@@ -17375,10 +18640,10 @@
         <v>188</v>
       </c>
       <c r="H497" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
@@ -17401,7 +18666,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
@@ -17424,7 +18689,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
@@ -17446,8 +18711,14 @@
       <c r="G500">
         <v>464</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H500" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J500" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
@@ -17469,8 +18740,14 @@
       <c r="G501">
         <v>464</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H501" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J501" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
@@ -17496,7 +18773,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
@@ -17519,7 +18796,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
@@ -17541,8 +18818,11 @@
       <c r="G504">
         <v>608</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H504" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
@@ -17565,13 +18845,13 @@
         <v>616</v>
       </c>
       <c r="H505" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I505" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
@@ -17594,7 +18874,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
@@ -17617,10 +18897,10 @@
         <v>667</v>
       </c>
       <c r="H507" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
@@ -17643,7 +18923,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
@@ -17666,7 +18946,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>509</v>
       </c>
@@ -17692,7 +18972,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>510</v>
       </c>
@@ -17714,8 +18994,14 @@
       <c r="G511">
         <v>143</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H511" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J511" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
@@ -17738,10 +19024,10 @@
         <v>199</v>
       </c>
       <c r="H512" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
@@ -17764,10 +19050,10 @@
         <v>470</v>
       </c>
       <c r="H513" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
@@ -17793,7 +19079,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
@@ -17819,7 +19105,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
@@ -17841,8 +19127,11 @@
       <c r="G516">
         <v>588</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H516" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
@@ -17865,7 +19154,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
@@ -17887,8 +19176,14 @@
       <c r="G518">
         <v>606</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H518" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
@@ -17910,8 +19205,11 @@
       <c r="G519">
         <v>679</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H519" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
@@ -17934,7 +19232,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
@@ -17956,8 +19254,11 @@
       <c r="G521">
         <v>771</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H521" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
@@ -17979,8 +19280,11 @@
       <c r="G522">
         <v>115</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H522" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
@@ -18006,7 +19310,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
@@ -18029,10 +19333,10 @@
         <v>192</v>
       </c>
       <c r="H524" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
@@ -18055,10 +19359,10 @@
         <v>192</v>
       </c>
       <c r="H525" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
@@ -18081,10 +19385,10 @@
         <v>201</v>
       </c>
       <c r="H526" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
@@ -18107,10 +19411,10 @@
         <v>241</v>
       </c>
       <c r="H527" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
@@ -18155,6 +19459,9 @@
       <c r="G529">
         <v>291</v>
       </c>
+      <c r="H529" t="s">
+        <v>1813</v>
+      </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530">
@@ -18228,7 +19535,7 @@
         <v>634</v>
       </c>
       <c r="H532" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
@@ -18277,7 +19584,7 @@
         <v>716</v>
       </c>
       <c r="H534" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
@@ -18325,6 +19632,9 @@
       <c r="G536">
         <v>764</v>
       </c>
+      <c r="H536" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537">
@@ -18479,7 +19789,7 @@
         <v>239</v>
       </c>
       <c r="H542" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.2">
@@ -18504,6 +19814,9 @@
       <c r="G543">
         <v>324</v>
       </c>
+      <c r="H543" t="s">
+        <v>1814</v>
+      </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544">
@@ -18527,8 +19840,11 @@
       <c r="G544">
         <v>331</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H544" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
@@ -18551,10 +19867,10 @@
         <v>416</v>
       </c>
       <c r="H545" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
@@ -18580,7 +19896,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
@@ -18603,10 +19919,10 @@
         <v>551</v>
       </c>
       <c r="H547" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
@@ -18629,10 +19945,10 @@
         <v>643</v>
       </c>
       <c r="H548" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
@@ -18657,11 +19973,11 @@
       <c r="H549" t="s">
         <v>1427</v>
       </c>
-      <c r="I549" t="s">
+      <c r="J549" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
@@ -18684,7 +20000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
@@ -18707,10 +20023,10 @@
         <v>71</v>
       </c>
       <c r="H551" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
@@ -18733,10 +20049,10 @@
         <v>162</v>
       </c>
       <c r="H552" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
@@ -18759,10 +20075,10 @@
         <v>181</v>
       </c>
       <c r="H553" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
@@ -18784,8 +20100,14 @@
       <c r="G554">
         <v>204</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H554" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J554" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
@@ -18808,10 +20130,10 @@
         <v>234</v>
       </c>
       <c r="H555" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
@@ -18834,10 +20156,10 @@
         <v>252</v>
       </c>
       <c r="H556" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
@@ -18860,10 +20182,10 @@
         <v>342</v>
       </c>
       <c r="H557" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
@@ -18886,7 +20208,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
@@ -18909,10 +20231,10 @@
         <v>475</v>
       </c>
       <c r="H559" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
@@ -18935,10 +20257,10 @@
         <v>624</v>
       </c>
       <c r="H560" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>560</v>
       </c>
@@ -18961,7 +20283,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>561</v>
       </c>
@@ -18984,7 +20306,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>562</v>
       </c>
@@ -19010,7 +20332,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>563</v>
       </c>
@@ -19033,10 +20355,10 @@
         <v>9</v>
       </c>
       <c r="H564" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>564</v>
       </c>
@@ -19058,8 +20380,11 @@
       <c r="G565">
         <v>69</v>
       </c>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H565" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>565</v>
       </c>
@@ -19081,15 +20406,18 @@
       <c r="G566">
         <v>70</v>
       </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H566" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>566</v>
       </c>
       <c r="B567" t="s">
         <v>1016</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C567" s="4" t="s">
         <v>1017</v>
       </c>
       <c r="D567">
@@ -19105,7 +20433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>567</v>
       </c>
@@ -19128,7 +20456,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>568</v>
       </c>
@@ -19154,7 +20482,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>569</v>
       </c>
@@ -19176,8 +20504,14 @@
       <c r="G570">
         <v>209</v>
       </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H570" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>570</v>
       </c>
@@ -19199,8 +20533,14 @@
       <c r="G571">
         <v>209</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H571" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>571</v>
       </c>
@@ -19223,10 +20563,10 @@
         <v>216</v>
       </c>
       <c r="H572" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>572</v>
       </c>
@@ -19252,7 +20592,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>573</v>
       </c>
@@ -19278,7 +20618,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>574</v>
       </c>
@@ -19300,8 +20640,11 @@
       <c r="G575">
         <v>379</v>
       </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H575" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>575</v>
       </c>
@@ -19324,10 +20667,10 @@
         <v>394</v>
       </c>
       <c r="H576" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
@@ -19353,7 +20696,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
@@ -19375,8 +20718,14 @@
       <c r="G578">
         <v>499</v>
       </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H578" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
@@ -19399,10 +20748,10 @@
         <v>541</v>
       </c>
       <c r="H579" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
@@ -19425,10 +20774,10 @@
         <v>598</v>
       </c>
       <c r="H580" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
@@ -19454,7 +20803,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
@@ -19476,8 +20825,11 @@
       <c r="G582">
         <v>787</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H582" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
@@ -19500,13 +20852,13 @@
         <v>798</v>
       </c>
       <c r="H583" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I583" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
@@ -19529,7 +20881,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
@@ -19552,10 +20904,10 @@
         <v>979</v>
       </c>
       <c r="H585" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
@@ -19578,10 +20930,10 @@
         <v>800</v>
       </c>
       <c r="H586" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
@@ -19604,10 +20956,10 @@
         <v>804</v>
       </c>
       <c r="H587" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
@@ -19630,10 +20982,10 @@
         <v>814</v>
       </c>
       <c r="H588" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
@@ -19656,10 +21008,10 @@
         <v>815</v>
       </c>
       <c r="H589" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>589</v>
       </c>
@@ -19682,10 +21034,10 @@
         <v>819</v>
       </c>
       <c r="H590" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>590</v>
       </c>
@@ -19708,10 +21060,10 @@
         <v>820</v>
       </c>
       <c r="H591" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>591</v>
       </c>
@@ -19732,6 +21084,12 @@
       </c>
       <c r="G592">
         <v>821</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J592" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
@@ -19757,7 +21115,7 @@
         <v>825</v>
       </c>
       <c r="H593" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
@@ -19783,7 +21141,7 @@
         <v>803</v>
       </c>
       <c r="H594" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
@@ -19809,7 +21167,7 @@
         <v>811</v>
       </c>
       <c r="H595" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -19835,7 +21193,7 @@
         <v>813</v>
       </c>
       <c r="H596" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
@@ -19861,7 +21219,7 @@
         <v>817</v>
       </c>
       <c r="H597" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
@@ -19887,7 +21245,7 @@
         <v>818</v>
       </c>
       <c r="H598" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
@@ -19913,7 +21271,7 @@
         <v>823</v>
       </c>
       <c r="H599" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
@@ -19939,7 +21297,7 @@
         <v>826</v>
       </c>
       <c r="H600" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
@@ -19965,7 +21323,7 @@
         <v>827</v>
       </c>
       <c r="H601" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
@@ -19991,7 +21349,7 @@
         <v>829</v>
       </c>
       <c r="H602" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -20017,7 +21375,7 @@
         <v>830</v>
       </c>
       <c r="H603" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
@@ -20043,7 +21401,7 @@
         <v>832</v>
       </c>
       <c r="H604" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
@@ -20069,7 +21427,7 @@
         <v>833</v>
       </c>
       <c r="H605" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
@@ -20095,7 +21453,7 @@
         <v>837</v>
       </c>
       <c r="H606" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
@@ -20121,7 +21479,7 @@
         <v>916</v>
       </c>
       <c r="H607" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I607" t="s">
         <v>1386</v>
@@ -20150,10 +21508,10 @@
         <v>949</v>
       </c>
       <c r="H608" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>608</v>
       </c>
@@ -20176,10 +21534,10 @@
         <v>1014</v>
       </c>
       <c r="H609" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>609</v>
       </c>
@@ -20201,8 +21559,11 @@
       <c r="G610">
         <v>551</v>
       </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H610" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>610</v>
       </c>
@@ -20224,8 +21585,11 @@
       <c r="G611">
         <v>643</v>
       </c>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H611" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>611</v>
       </c>
@@ -20248,10 +21612,10 @@
         <v>795</v>
       </c>
       <c r="H612" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>612</v>
       </c>
@@ -20274,10 +21638,10 @@
         <v>799</v>
       </c>
       <c r="H613" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>613</v>
       </c>
@@ -20300,10 +21664,10 @@
         <v>810</v>
       </c>
       <c r="H614" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="615" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>614</v>
       </c>
@@ -20326,10 +21690,10 @@
         <v>831</v>
       </c>
       <c r="H615" s="5" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>615</v>
       </c>
@@ -20351,8 +21715,14 @@
       <c r="G616">
         <v>836</v>
       </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H616" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J616" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>616</v>
       </c>
@@ -20374,8 +21744,14 @@
       <c r="G617">
         <v>838</v>
       </c>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H617" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J617" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>617</v>
       </c>
@@ -20398,10 +21774,10 @@
         <v>858</v>
       </c>
       <c r="H618" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>618</v>
       </c>
@@ -20424,10 +21800,10 @@
         <v>971</v>
       </c>
       <c r="H619" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>619</v>
       </c>
@@ -20450,7 +21826,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>620</v>
       </c>
@@ -20472,8 +21848,14 @@
       <c r="G621">
         <v>241</v>
       </c>
-    </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H621" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I621" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>621</v>
       </c>
@@ -20496,10 +21878,10 @@
         <v>797</v>
       </c>
       <c r="H622" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>622</v>
       </c>
@@ -20522,10 +21904,10 @@
         <v>801</v>
       </c>
       <c r="H623" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>623</v>
       </c>
@@ -20548,7 +21930,7 @@
         <v>805</v>
       </c>
       <c r="H624" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.2">
@@ -20574,7 +21956,7 @@
         <v>806</v>
       </c>
       <c r="H625" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.2">
@@ -20600,7 +21982,7 @@
         <v>808</v>
       </c>
       <c r="H626" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.2">
@@ -20626,7 +22008,7 @@
         <v>809</v>
       </c>
       <c r="H627" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.2">
@@ -20652,7 +22034,7 @@
         <v>834</v>
       </c>
       <c r="H628" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.2">
@@ -20678,7 +22060,7 @@
         <v>844</v>
       </c>
       <c r="H629" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.2">
@@ -20704,7 +22086,7 @@
         <v>862</v>
       </c>
       <c r="H630" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.2">
@@ -20730,7 +22112,7 @@
         <v>864</v>
       </c>
       <c r="H631" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.2">
@@ -20755,6 +22137,9 @@
       <c r="G632">
         <v>896</v>
       </c>
+      <c r="H632" t="s">
+        <v>1829</v>
+      </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633">
@@ -20779,7 +22164,7 @@
         <v>955</v>
       </c>
       <c r="H633" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.2">
@@ -20805,7 +22190,7 @@
         <v>961</v>
       </c>
       <c r="H634" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.2">
@@ -20831,7 +22216,7 @@
         <v>842</v>
       </c>
       <c r="H635" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.2">
@@ -20856,6 +22241,9 @@
       <c r="G636">
         <v>852</v>
       </c>
+      <c r="H636" t="s">
+        <v>1830</v>
+      </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637">
@@ -20880,7 +22268,7 @@
         <v>866</v>
       </c>
       <c r="H637" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.2">
@@ -20906,7 +22294,7 @@
         <v>872</v>
       </c>
       <c r="H638" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
@@ -20932,7 +22320,7 @@
         <v>876</v>
       </c>
       <c r="H639" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
@@ -20958,10 +22346,10 @@
         <v>891</v>
       </c>
       <c r="H640" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>640</v>
       </c>
@@ -20984,10 +22372,10 @@
         <v>911</v>
       </c>
       <c r="H641" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>641</v>
       </c>
@@ -21010,10 +22398,10 @@
         <v>943</v>
       </c>
       <c r="H642" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>642</v>
       </c>
@@ -21036,10 +22424,10 @@
         <v>983</v>
       </c>
       <c r="H643" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>643</v>
       </c>
@@ -21062,10 +22450,10 @@
         <v>1040</v>
       </c>
       <c r="H644" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>644</v>
       </c>
@@ -21088,10 +22476,10 @@
         <v>840</v>
       </c>
       <c r="H645" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>645</v>
       </c>
@@ -21114,7 +22502,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>646</v>
       </c>
@@ -21137,10 +22525,10 @@
         <v>909</v>
       </c>
       <c r="H647" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>647</v>
       </c>
@@ -21163,10 +22551,10 @@
         <v>912</v>
       </c>
       <c r="H648" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>648</v>
       </c>
@@ -21189,10 +22577,10 @@
         <v>913</v>
       </c>
       <c r="H649" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>649</v>
       </c>
@@ -21215,10 +22603,10 @@
         <v>915</v>
       </c>
       <c r="H650" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>650</v>
       </c>
@@ -21241,10 +22629,10 @@
         <v>919</v>
       </c>
       <c r="H651" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>651</v>
       </c>
@@ -21266,8 +22654,14 @@
       <c r="G652">
         <v>928</v>
       </c>
-    </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H652" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I652" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>652</v>
       </c>
@@ -21290,10 +22684,10 @@
         <v>930</v>
       </c>
       <c r="H653" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>653</v>
       </c>
@@ -21316,10 +22710,10 @@
         <v>962</v>
       </c>
       <c r="H654" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>654</v>
       </c>
@@ -21342,10 +22736,10 @@
         <v>975</v>
       </c>
       <c r="H655" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>655</v>
       </c>
@@ -21368,7 +22762,7 @@
         <v>997</v>
       </c>
       <c r="H656" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
@@ -21393,6 +22787,9 @@
       <c r="G657">
         <v>1000</v>
       </c>
+      <c r="H657" t="s">
+        <v>1832</v>
+      </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658">
@@ -21416,6 +22813,9 @@
       <c r="G658">
         <v>82</v>
       </c>
+      <c r="H658" t="s">
+        <v>1833</v>
+      </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659">
@@ -21440,7 +22840,7 @@
         <v>848</v>
       </c>
       <c r="H659" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
@@ -21466,7 +22866,7 @@
         <v>965</v>
       </c>
       <c r="H660" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
@@ -21492,7 +22892,7 @@
         <v>974</v>
       </c>
       <c r="H661" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
@@ -21518,7 +22918,7 @@
         <v>978</v>
       </c>
       <c r="H662" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
@@ -21544,7 +22944,7 @@
         <v>981</v>
       </c>
       <c r="H663" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
@@ -21570,7 +22970,7 @@
         <v>899</v>
       </c>
       <c r="H664" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
@@ -21596,7 +22996,7 @@
         <v>855</v>
       </c>
       <c r="H665" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
@@ -21622,10 +23022,10 @@
         <v>867</v>
       </c>
       <c r="H666" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I666" t="s">
         <v>1582</v>
-      </c>
-      <c r="I666" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
@@ -21651,7 +23051,7 @@
         <v>895</v>
       </c>
       <c r="H667" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
@@ -21677,7 +23077,7 @@
         <v>920</v>
       </c>
       <c r="H668" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
@@ -21703,7 +23103,7 @@
         <v>984</v>
       </c>
       <c r="H669" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
@@ -21729,7 +23129,7 @@
         <v>990</v>
       </c>
       <c r="H670" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
@@ -21778,10 +23178,10 @@
         <v>993</v>
       </c>
       <c r="H672" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>672</v>
       </c>
@@ -21803,8 +23203,14 @@
       <c r="G673">
         <v>996</v>
       </c>
-    </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H673" t="s">
+        <v>1834</v>
+      </c>
+      <c r="J673" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>673</v>
       </c>
@@ -21827,13 +23233,13 @@
         <v>1012</v>
       </c>
       <c r="H674" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I674" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J674" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>674</v>
       </c>
@@ -21855,8 +23261,11 @@
       <c r="G675">
         <v>1043</v>
       </c>
-    </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H675" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>675</v>
       </c>
@@ -21879,10 +23288,10 @@
         <v>869</v>
       </c>
       <c r="H676" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>676</v>
       </c>
@@ -21905,10 +23314,10 @@
         <v>874</v>
       </c>
       <c r="H677" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>677</v>
       </c>
@@ -21931,10 +23340,10 @@
         <v>874</v>
       </c>
       <c r="H678" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>678</v>
       </c>
@@ -21957,10 +23366,10 @@
         <v>874</v>
       </c>
       <c r="H679" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>679</v>
       </c>
@@ -21983,10 +23392,10 @@
         <v>879</v>
       </c>
       <c r="H680" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>680</v>
       </c>
@@ -22009,10 +23418,10 @@
         <v>931</v>
       </c>
       <c r="H681" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>681</v>
       </c>
@@ -22035,10 +23444,10 @@
         <v>972</v>
       </c>
       <c r="H682" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>682</v>
       </c>
@@ -22061,10 +23470,10 @@
         <v>987</v>
       </c>
       <c r="H683" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>683</v>
       </c>
@@ -22086,8 +23495,11 @@
       <c r="G684">
         <v>988</v>
       </c>
-    </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H684" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>684</v>
       </c>
@@ -22110,10 +23522,10 @@
         <v>992</v>
       </c>
       <c r="H685" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>685</v>
       </c>
@@ -22136,10 +23548,10 @@
         <v>995</v>
       </c>
       <c r="H686" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>686</v>
       </c>
@@ -22162,10 +23574,10 @@
         <v>1007</v>
       </c>
       <c r="H687" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>687</v>
       </c>
@@ -22188,7 +23600,7 @@
         <v>1013</v>
       </c>
       <c r="H688" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.2">
@@ -22213,6 +23625,9 @@
       <c r="G689">
         <v>1041</v>
       </c>
+      <c r="H689" t="s">
+        <v>1837</v>
+      </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690">
@@ -22237,7 +23652,7 @@
         <v>989</v>
       </c>
       <c r="H690" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.2">
@@ -22263,7 +23678,7 @@
         <v>877</v>
       </c>
       <c r="H691" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.2">
@@ -22289,7 +23704,7 @@
         <v>877</v>
       </c>
       <c r="H692" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.2">
@@ -22315,7 +23730,7 @@
         <v>877</v>
       </c>
       <c r="H693" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.2">
@@ -22341,7 +23756,7 @@
         <v>941</v>
       </c>
       <c r="H694" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
@@ -22366,6 +23781,9 @@
       <c r="G695">
         <v>1011</v>
       </c>
+      <c r="H695" t="s">
+        <v>1838</v>
+      </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696">
@@ -22389,6 +23807,9 @@
       <c r="G696">
         <v>1015</v>
       </c>
+      <c r="H696" t="s">
+        <v>1839</v>
+      </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697">
@@ -22412,6 +23833,9 @@
       <c r="G697">
         <v>1016</v>
       </c>
+      <c r="H697" t="s">
+        <v>1840</v>
+      </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698">
@@ -22436,7 +23860,7 @@
         <v>1017</v>
       </c>
       <c r="H698" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.2">
@@ -22461,6 +23885,9 @@
       <c r="G699">
         <v>1018</v>
       </c>
+      <c r="H699" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700">
@@ -22485,7 +23912,7 @@
         <v>1019</v>
       </c>
       <c r="H700" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
@@ -22511,7 +23938,7 @@
         <v>1020</v>
       </c>
       <c r="H701" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
@@ -22537,7 +23964,7 @@
         <v>1021</v>
       </c>
       <c r="H702" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.2">
@@ -22563,7 +23990,7 @@
         <v>1022</v>
       </c>
       <c r="H703" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
@@ -22589,10 +24016,10 @@
         <v>1023</v>
       </c>
       <c r="H704" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>704</v>
       </c>
@@ -22615,10 +24042,10 @@
         <v>1024</v>
       </c>
       <c r="H705" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>705</v>
       </c>
@@ -22641,10 +24068,10 @@
         <v>1025</v>
       </c>
       <c r="H706" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>706</v>
       </c>
@@ -22667,10 +24094,10 @@
         <v>1026</v>
       </c>
       <c r="H707" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>707</v>
       </c>
@@ -22693,10 +24120,10 @@
         <v>1027</v>
       </c>
       <c r="H708" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>708</v>
       </c>
@@ -22718,8 +24145,11 @@
       <c r="G709">
         <v>1028</v>
       </c>
-    </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H709" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>709</v>
       </c>
@@ -22742,10 +24172,10 @@
         <v>1029</v>
       </c>
       <c r="H710" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>710</v>
       </c>
@@ -22767,8 +24197,11 @@
       <c r="G711">
         <v>1030</v>
       </c>
-    </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H711" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>711</v>
       </c>
@@ -22790,8 +24223,11 @@
       <c r="G712">
         <v>1031</v>
       </c>
-    </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H712" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>712</v>
       </c>
@@ -22814,10 +24250,10 @@
         <v>1032</v>
       </c>
       <c r="H713" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>713</v>
       </c>
@@ -22840,10 +24276,10 @@
         <v>1033</v>
       </c>
       <c r="H714" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>714</v>
       </c>
@@ -22866,10 +24302,10 @@
         <v>1035</v>
       </c>
       <c r="H715" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>715</v>
       </c>
@@ -22892,10 +24328,10 @@
         <v>1036</v>
       </c>
       <c r="H716" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>716</v>
       </c>
@@ -22918,10 +24354,10 @@
         <v>1037</v>
       </c>
       <c r="H717" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>717</v>
       </c>
@@ -22943,8 +24379,14 @@
       <c r="G718">
         <v>1038</v>
       </c>
-    </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H718" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J718" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>718</v>
       </c>
@@ -22967,7 +24409,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>719</v>
       </c>
@@ -24813,8 +26255,12 @@
     <hyperlink ref="H445" r:id="rId2" xr:uid="{F5AAD0DF-DDAD-2A48-9406-2101277B0BD5}"/>
     <hyperlink ref="H615" r:id="rId3" display="http://www.customs.go.kr/download/engportal/han_turkey_02_01.pdf" xr:uid="{94863AD4-09D2-2C4C-8B1B-9AB793AD72C0}"/>
     <hyperlink ref="H22" r:id="rId4" xr:uid="{AE10B97F-E947-A443-BC47-633F4BEE3A26}"/>
-    <hyperlink ref="I58" r:id="rId5" xr:uid="{2FA2434D-A9AE-3A4D-9071-2B821CE7B78D}"/>
-    <hyperlink ref="H72" r:id="rId6" xr:uid="{541AD005-4852-CB4A-9C93-EEFAB334FA7B}"/>
+    <hyperlink ref="H72" r:id="rId5" xr:uid="{541AD005-4852-CB4A-9C93-EEFAB334FA7B}"/>
+    <hyperlink ref="H140" r:id="rId6" xr:uid="{0BB730F3-E8F2-FE4A-A8AE-355B5FD9DFC0}"/>
+    <hyperlink ref="H407" r:id="rId7" xr:uid="{61FBD632-B11B-754F-ABC0-DDF4039E7EBD}"/>
+    <hyperlink ref="H476" r:id="rId8" xr:uid="{2BFCF764-541F-AC43-AAE8-A69A2EB7798D}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{B1078B0C-F828-604D-BBE2-4BD91296EDA2}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{51025E18-8583-7D44-8336-083F26631C82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/texts/AGR_TXT/DESTA_TXT.xlsx
+++ b/data-raw/texts/AGR_TXT/DESTA_TXT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeltan/Documents/GitHub/manytrade/data-raw/texts/AGR_TXT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B749DF9-058B-4D48-B875-6EE1E70AE032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598393E2-3DD9-A047-9FEE-5927A9F5DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2EBF81AD-632B-854A-A9EC-C64523CEF580}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{2EBF81AD-632B-854A-A9EC-C64523CEF580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5731,9 +5731,6 @@
     <t>CHL-TUR[NA]_2009O</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>url2</t>
   </si>
   <si>
@@ -5846,6 +5843,9 @@
   </si>
   <si>
     <t>http://www.sice.oas.org/Trade/colpan/colpan_s1.asp</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -6234,9 +6234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124AB8FC-2BA3-0047-AE15-0F0E5C910EBE}">
   <dimension ref="A1:K797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I495" sqref="I495"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I655" sqref="I655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6273,10 +6273,10 @@
         <v>1372</v>
       </c>
       <c r="H1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="I1" t="s">
-        <v>1891</v>
+        <v>1929</v>
       </c>
       <c r="J1" t="s">
         <v>1376</v>
@@ -6819,10 +6819,10 @@
         <v>680</v>
       </c>
       <c r="I25" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -7384,10 +7384,10 @@
         <v>901</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="I51" s="3"/>
     </row>
@@ -7812,10 +7812,10 @@
         <v>985</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -8743,10 +8743,10 @@
         <v>302</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="I111" s="3"/>
     </row>
@@ -8770,10 +8770,10 @@
         <v>317</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="I112" s="3"/>
     </row>
@@ -8797,10 +8797,10 @@
         <v>322</v>
       </c>
       <c r="G113" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H113" s="11" t="s">
         <v>1901</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>1902</v>
       </c>
       <c r="I113" s="3"/>
     </row>
@@ -9183,7 +9183,7 @@
         <v>1641</v>
       </c>
       <c r="J130" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -10032,7 +10032,7 @@
         <v>144</v>
       </c>
       <c r="G165" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="K165" t="s">
         <v>1375</v>
@@ -10058,7 +10058,7 @@
         <v>251</v>
       </c>
       <c r="G166" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="K166" t="s">
         <v>1375</v>
@@ -10179,7 +10179,7 @@
         <v>421</v>
       </c>
       <c r="G171" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="K171" t="s">
         <v>1375</v>
@@ -10205,7 +10205,7 @@
         <v>480</v>
       </c>
       <c r="G172" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="K172" t="s">
         <v>1375</v>
@@ -10303,7 +10303,7 @@
         <v>635</v>
       </c>
       <c r="G176" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K176" t="s">
         <v>1375</v>
@@ -10898,7 +10898,7 @@
         <v>681</v>
       </c>
       <c r="G202" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="K202" t="s">
         <v>1375</v>
@@ -10924,7 +10924,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K203" t="s">
         <v>1375</v>
@@ -10970,7 +10970,7 @@
         <v>476</v>
       </c>
       <c r="G205" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="K205" t="s">
         <v>1375</v>
@@ -12303,7 +12303,7 @@
         <v>240</v>
       </c>
       <c r="G264" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="K264" t="s">
         <v>1375</v>
@@ -12593,7 +12593,7 @@
         <v>1706</v>
       </c>
       <c r="J277" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
@@ -12723,7 +12723,7 @@
         <v>172</v>
       </c>
       <c r="G282" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
@@ -13004,7 +13004,7 @@
       <c r="F294">
         <v>464</v>
       </c>
-      <c r="G294" t="s">
+      <c r="I294" t="s">
         <v>1718</v>
       </c>
       <c r="K294" t="s">
@@ -13909,7 +13909,7 @@
         <v>123</v>
       </c>
       <c r="G335" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="K335" t="s">
         <v>1375</v>
@@ -13955,7 +13955,7 @@
         <v>209</v>
       </c>
       <c r="G337" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="K337" t="s">
         <v>1375</v>
@@ -14170,7 +14170,7 @@
         <v>1734</v>
       </c>
       <c r="J347" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
@@ -14623,7 +14623,7 @@
         <v>1738</v>
       </c>
       <c r="J368" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -15210,7 +15210,7 @@
         <v>1742</v>
       </c>
       <c r="J396" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
@@ -15831,7 +15831,7 @@
       <c r="F424">
         <v>612</v>
       </c>
-      <c r="G424" t="s">
+      <c r="I424" t="s">
         <v>1748</v>
       </c>
       <c r="K424" t="s">
@@ -16531,7 +16531,7 @@
         <v>185</v>
       </c>
       <c r="G456" s="10" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
@@ -17249,7 +17249,7 @@
         <v>25</v>
       </c>
       <c r="G489" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="K489" t="s">
         <v>1375</v>
@@ -17880,8 +17880,8 @@
       <c r="F517">
         <v>606</v>
       </c>
-      <c r="G517" t="s">
-        <v>1915</v>
+      <c r="G517" s="1" t="s">
+        <v>1914</v>
       </c>
       <c r="K517" t="s">
         <v>1375</v>
@@ -18084,7 +18084,7 @@
       <c r="F526">
         <v>291</v>
       </c>
-      <c r="G526" t="s">
+      <c r="I526" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -18107,7 +18107,7 @@
       <c r="F527">
         <v>399</v>
       </c>
-      <c r="G527" t="s">
+      <c r="G527" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -18256,7 +18256,7 @@
       <c r="F534">
         <v>67</v>
       </c>
-      <c r="G534" t="s">
+      <c r="I534" t="s">
         <v>1410</v>
       </c>
     </row>
@@ -18279,7 +18279,7 @@
       <c r="F535">
         <v>67</v>
       </c>
-      <c r="G535" t="s">
+      <c r="I535" t="s">
         <v>1410</v>
       </c>
     </row>
@@ -18372,7 +18372,7 @@
         <v>239</v>
       </c>
       <c r="G539" s="10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
@@ -18534,7 +18534,7 @@
       <c r="F546">
         <v>812</v>
       </c>
-      <c r="G546" t="s">
+      <c r="I546" t="s">
         <v>1414</v>
       </c>
       <c r="K546" t="s">
@@ -19361,7 +19361,7 @@
       <c r="F582">
         <v>979</v>
       </c>
-      <c r="G582" t="s">
+      <c r="G582" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
@@ -19523,7 +19523,7 @@
         <v>821</v>
       </c>
       <c r="G589" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="K589" t="s">
         <v>1375</v>
@@ -20058,12 +20058,12 @@
         <v>831</v>
       </c>
       <c r="G612" s="10" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H612" s="5"/>
       <c r="I612" s="5"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1097</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>831</v>
       </c>
       <c r="G613" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H613" s="5"/>
       <c r="I613" s="5"/>
@@ -20574,7 +20574,7 @@
         <v>852</v>
       </c>
       <c r="G634" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
@@ -21056,7 +21056,7 @@
       <c r="F655">
         <v>1000</v>
       </c>
-      <c r="G655" t="s">
+      <c r="I655" t="s">
         <v>1783</v>
       </c>
     </row>
@@ -24113,6 +24113,9 @@
     <hyperlink ref="G113" r:id="rId15" xr:uid="{AE5C3B5F-2C7E-C74F-A110-626835218BF1}"/>
     <hyperlink ref="G456" r:id="rId16" xr:uid="{2C8277D6-A572-AD43-8A2D-FA764DD3C3D0}"/>
     <hyperlink ref="G539" r:id="rId17" xr:uid="{55572991-7303-2D4B-A2D1-8810996DE7B2}"/>
+    <hyperlink ref="G517" r:id="rId18" xr:uid="{19B12918-FB4D-6D46-AFF3-5853CB1999A8}"/>
+    <hyperlink ref="G527" r:id="rId19" xr:uid="{E0853028-ED92-FD4A-8736-3824E1D9D21F}"/>
+    <hyperlink ref="G582" r:id="rId20" xr:uid="{3A706D3E-A377-8842-B6BC-F1E555C793B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/texts/AGR_TXT/DESTA_TXT.xlsx
+++ b/data-raw/texts/AGR_TXT/DESTA_TXT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeltan/Documents/GitHub/manytrade/data-raw/texts/AGR_TXT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598393E2-3DD9-A047-9FEE-5927A9F5DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1164F658-DABC-C049-A371-272375539C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{2EBF81AD-632B-854A-A9EC-C64523CEF580}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1927">
   <si>
     <t>manyID</t>
   </si>
@@ -4972,9 +4972,6 @@
     <t>https://almeezan.qa/ViewAgreement.aspx?opt&amp;agrID=968&amp;language=en</t>
   </si>
   <si>
-    <t>https://almeezan.qa/DownloadPDFAgreementPage.aspx?Target=All&amp;type=2&amp;agrID=968&amp;language=en</t>
-  </si>
-  <si>
     <t>https://www.treaty-accord.gc.ca/text-texte.aspx?id=101178</t>
   </si>
   <si>
@@ -5398,9 +5395,6 @@
     <t>https://2009-2017.state.gov/documents/organization/207971.pdf</t>
   </si>
   <si>
-    <t>https://2009-2017.state.gov/e/oes/eqt/trade/207758.htm</t>
-  </si>
-  <si>
     <t>http://www.sice.oas.org/TPD/PAN_TTO/Text_e.pdf</t>
   </si>
   <si>
@@ -5731,9 +5725,6 @@
     <t>CHL-TUR[NA]_2009O</t>
   </si>
   <si>
-    <t>url2</t>
-  </si>
-  <si>
     <t>https://investmentpolicy.unctad.org/international-investment-agreements/treaty-files/2487/download</t>
   </si>
   <si>
@@ -5845,7 +5836,7 @@
     <t>http://www.sice.oas.org/Trade/colpan/colpan_s1.asp</t>
   </si>
   <si>
-    <t>link</t>
+    <t>alt.url</t>
   </si>
 </sst>
 </file>
@@ -5890,12 +5881,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6232,11 +6220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124AB8FC-2BA3-0047-AE15-0F0E5C910EBE}">
-  <dimension ref="A1:K797"/>
+  <dimension ref="A1:J797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I655" sqref="I655"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I619" sqref="I619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6247,10 +6235,10 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="54.1640625" customWidth="1"/>
+    <col min="7" max="8" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6273,19 +6261,16 @@
         <v>1372</v>
       </c>
       <c r="H1" t="s">
-        <v>1891</v>
+        <v>1926</v>
       </c>
       <c r="I1" t="s">
-        <v>1929</v>
+        <v>1376</v>
       </c>
       <c r="J1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6305,7 +6290,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6328,7 +6313,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6333,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6370,12 +6355,12 @@
       <c r="G5" t="s">
         <v>1576</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -6397,11 +6382,11 @@
       <c r="G6" t="s">
         <v>1577</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6424,7 +6409,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6448,7 +6433,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -6471,7 +6456,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6491,7 +6476,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6511,7 +6496,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -6533,11 +6518,11 @@
       <c r="G12" t="s">
         <v>1582</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -6557,7 +6542,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -6577,7 +6562,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6596,12 +6581,12 @@
       <c r="F15">
         <v>189</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -6620,15 +6605,15 @@
       <c r="F16">
         <v>706</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6648,7 +6633,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -6668,7 +6653,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -6691,7 +6676,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -6711,7 +6696,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -6734,7 +6719,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -6757,9 +6742,8 @@
         <v>1371</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -6779,7 +6763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -6799,7 +6783,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -6818,14 +6802,14 @@
       <c r="F25">
         <v>680</v>
       </c>
-      <c r="I25" t="s">
-        <v>1903</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -6845,7 +6829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -6868,7 +6852,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -6888,7 +6872,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -6911,7 +6895,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6931,7 +6915,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -6954,7 +6938,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6977,7 +6961,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -6999,11 +6983,11 @@
       <c r="G33" t="s">
         <v>1591</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -7023,7 +7007,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -7046,7 +7030,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -7069,7 +7053,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7088,11 +7072,11 @@
       <c r="F37">
         <v>689</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -7112,7 +7096,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -7132,7 +7116,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -7155,7 +7139,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -7175,7 +7159,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -7198,7 +7182,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -7218,7 +7202,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -7237,11 +7221,11 @@
       <c r="F44">
         <v>179</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -7264,7 +7248,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -7284,7 +7268,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -7304,7 +7288,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -7324,7 +7308,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -7344,7 +7328,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -7364,7 +7348,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -7383,15 +7367,14 @@
       <c r="F51">
         <v>901</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>1893</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>1892</v>
-      </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G51" s="9" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -7411,7 +7394,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -7431,7 +7414,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -7451,9 +7434,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>1881</v>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>1879</v>
       </c>
       <c r="B55" t="s">
         <v>111</v>
@@ -7471,7 +7454,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -7491,7 +7474,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -7511,7 +7494,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -7533,9 +7516,9 @@
       <c r="G58" t="s">
         <v>1600</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7558,7 +7541,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -7581,7 +7564,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -7604,7 +7587,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -7626,11 +7609,11 @@
       <c r="G62" t="s">
         <v>1594</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -7650,9 +7633,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>1882</v>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>1880</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
@@ -7673,9 +7656,8 @@
         <v>1422</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -7698,7 +7680,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -7721,7 +7703,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -7744,7 +7726,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -7767,7 +7749,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -7790,9 +7772,8 @@
         <v>1608</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -7811,15 +7792,14 @@
       <c r="F70">
         <v>985</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>1895</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>1894</v>
-      </c>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G70" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -7839,7 +7819,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -7858,13 +7838,12 @@
       <c r="F72">
         <v>85</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -7887,7 +7866,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -7907,27 +7886,27 @@
         <v>303</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C75" t="s">
         <v>1883</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" s="7" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>1884</v>
       </c>
-      <c r="C75" t="s">
+      <c r="F75" s="7" t="s">
         <v>1885</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>1886</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -7947,7 +7926,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>147</v>
       </c>
@@ -7970,7 +7949,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -7993,7 +7972,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -8013,7 +7992,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -8036,7 +8015,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -8058,11 +8037,11 @@
       <c r="G81" t="s">
         <v>1613</v>
       </c>
-      <c r="K81" t="s">
+      <c r="J81" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -8084,11 +8063,11 @@
       <c r="G82" t="s">
         <v>1613</v>
       </c>
-      <c r="K82" t="s">
+      <c r="J82" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -8111,7 +8090,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -8134,7 +8113,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>159</v>
       </c>
@@ -8157,7 +8136,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -8177,7 +8156,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>163</v>
       </c>
@@ -8197,7 +8176,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -8220,7 +8199,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -8243,7 +8222,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -8266,7 +8245,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -8289,7 +8268,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>173</v>
       </c>
@@ -8312,7 +8291,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -8332,7 +8311,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -8355,7 +8334,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -8378,7 +8357,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -8401,7 +8380,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -8424,7 +8403,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -8447,7 +8426,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -8467,7 +8446,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -8490,7 +8469,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -8510,7 +8489,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -8536,7 +8515,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>191</v>
       </c>
@@ -8562,7 +8541,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>193</v>
       </c>
@@ -8585,7 +8564,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>193</v>
       </c>
@@ -8608,7 +8587,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -8634,7 +8613,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -8657,7 +8636,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>199</v>
       </c>
@@ -8680,7 +8659,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>201</v>
       </c>
@@ -8700,7 +8679,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>203</v>
       </c>
@@ -8723,7 +8702,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -8742,15 +8721,14 @@
       <c r="F111">
         <v>302</v>
       </c>
-      <c r="G111" s="10" t="s">
-        <v>1897</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>1896</v>
-      </c>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G111" s="9" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>207</v>
       </c>
@@ -8769,15 +8747,14 @@
       <c r="F112">
         <v>317</v>
       </c>
-      <c r="G112" s="10" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>1898</v>
-      </c>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G112" s="9" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>209</v>
       </c>
@@ -8796,15 +8773,14 @@
       <c r="F113">
         <v>322</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>1901</v>
-      </c>
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G113" s="9" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>210</v>
       </c>
@@ -8824,7 +8800,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>212</v>
       </c>
@@ -8844,7 +8820,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>214</v>
       </c>
@@ -8864,7 +8840,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>216</v>
       </c>
@@ -8884,10 +8860,10 @@
         <v>585</v>
       </c>
       <c r="G117" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>218</v>
       </c>
@@ -8910,7 +8886,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>220</v>
       </c>
@@ -8932,11 +8908,8 @@
       <c r="G119" t="s">
         <v>1637</v>
       </c>
-      <c r="J119" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -8956,7 +8929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -8976,10 +8949,10 @@
         <v>167</v>
       </c>
       <c r="G121" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>226</v>
       </c>
@@ -8999,7 +8972,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>228</v>
       </c>
@@ -9019,7 +8992,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>230</v>
       </c>
@@ -9039,10 +9012,10 @@
         <v>496</v>
       </c>
       <c r="G124" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -9065,7 +9038,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>234</v>
       </c>
@@ -9085,7 +9058,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>236</v>
       </c>
@@ -9105,13 +9078,13 @@
         <v>247</v>
       </c>
       <c r="G127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="K127" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J127" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>238</v>
       </c>
@@ -9131,16 +9104,16 @@
         <v>699</v>
       </c>
       <c r="G128" t="s">
-        <v>1644</v>
+        <v>1643</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1642</v>
       </c>
       <c r="J128" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K128" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -9160,7 +9133,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>241</v>
       </c>
@@ -9179,14 +9152,14 @@
       <c r="F130">
         <v>772</v>
       </c>
+      <c r="H130" t="s">
+        <v>1640</v>
+      </c>
       <c r="I130" t="s">
-        <v>1641</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>243</v>
       </c>
@@ -9206,7 +9179,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>245</v>
       </c>
@@ -9226,16 +9199,16 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>1645</v>
+        <v>1644</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1642</v>
       </c>
       <c r="J132" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K132" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>247</v>
       </c>
@@ -9255,16 +9228,16 @@
         <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>1646</v>
+        <v>1645</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1642</v>
       </c>
       <c r="J133" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K133" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>249</v>
       </c>
@@ -9287,7 +9260,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>251</v>
       </c>
@@ -9307,16 +9280,16 @@
         <v>214</v>
       </c>
       <c r="G135" t="s">
-        <v>1654</v>
+        <v>1653</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1642</v>
       </c>
       <c r="J135" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K135" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>253</v>
       </c>
@@ -9336,7 +9309,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>255</v>
       </c>
@@ -9358,11 +9331,11 @@
       <c r="G137" t="s">
         <v>1374</v>
       </c>
-      <c r="K137" t="s">
+      <c r="J137" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>257</v>
       </c>
@@ -9382,7 +9355,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>259</v>
       </c>
@@ -9402,7 +9375,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>260</v>
       </c>
@@ -9422,16 +9395,16 @@
         <v>712</v>
       </c>
       <c r="G140" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I140" t="s">
         <v>1642</v>
       </c>
       <c r="J140" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K140" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>262</v>
       </c>
@@ -9454,12 +9427,11 @@
         <v>1377</v>
       </c>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="K141" t="s">
+      <c r="J141" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>264</v>
       </c>
@@ -9479,16 +9451,16 @@
         <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>1646</v>
+        <v>1645</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1642</v>
       </c>
       <c r="J142" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K142" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -9508,13 +9480,13 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K143" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J143" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>268</v>
       </c>
@@ -9534,7 +9506,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>270</v>
       </c>
@@ -9554,13 +9526,13 @@
         <v>235</v>
       </c>
       <c r="G145" t="s">
-        <v>1656</v>
-      </c>
-      <c r="K145" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J145" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>272</v>
       </c>
@@ -9580,13 +9552,13 @@
         <v>236</v>
       </c>
       <c r="G146" t="s">
-        <v>1657</v>
-      </c>
-      <c r="K146" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J146" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>274</v>
       </c>
@@ -9606,13 +9578,13 @@
         <v>237</v>
       </c>
       <c r="G147" t="s">
-        <v>1658</v>
-      </c>
-      <c r="K147" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J147" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>276</v>
       </c>
@@ -9632,7 +9604,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>278</v>
       </c>
@@ -9652,10 +9624,10 @@
         <v>586</v>
       </c>
       <c r="G149" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>280</v>
       </c>
@@ -9675,7 +9647,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>281</v>
       </c>
@@ -9695,7 +9667,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>283</v>
       </c>
@@ -9715,7 +9687,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>285</v>
       </c>
@@ -9735,13 +9707,13 @@
         <v>217</v>
       </c>
       <c r="G153" t="s">
-        <v>1662</v>
-      </c>
-      <c r="K153" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J153" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>287</v>
       </c>
@@ -9761,16 +9733,16 @@
         <v>268</v>
       </c>
       <c r="G154" t="s">
-        <v>1649</v>
+        <v>1648</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1642</v>
       </c>
       <c r="J154" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K154" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>289</v>
       </c>
@@ -9789,14 +9761,14 @@
       <c r="F155">
         <v>292</v>
       </c>
-      <c r="I155" t="s">
+      <c r="H155" t="s">
         <v>1378</v>
       </c>
-      <c r="K155" t="s">
+      <c r="J155" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>291</v>
       </c>
@@ -9816,7 +9788,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>293</v>
       </c>
@@ -9836,7 +9808,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>295</v>
       </c>
@@ -9856,7 +9828,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>297</v>
       </c>
@@ -9876,13 +9848,13 @@
         <v>477</v>
       </c>
       <c r="G159" t="s">
-        <v>1650</v>
-      </c>
-      <c r="K159" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J159" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>299</v>
       </c>
@@ -9902,16 +9874,16 @@
         <v>610</v>
       </c>
       <c r="G160" t="s">
-        <v>1651</v>
+        <v>1650</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1642</v>
       </c>
       <c r="J160" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K160" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>301</v>
       </c>
@@ -9931,13 +9903,13 @@
         <v>613</v>
       </c>
       <c r="G161" t="s">
-        <v>1652</v>
-      </c>
-      <c r="K161" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J161" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>303</v>
       </c>
@@ -9957,7 +9929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>305</v>
       </c>
@@ -9979,11 +9951,11 @@
       <c r="G163" t="s">
         <v>1379</v>
       </c>
-      <c r="K163" t="s">
+      <c r="J163" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>307</v>
       </c>
@@ -10003,16 +9975,16 @@
         <v>48</v>
       </c>
       <c r="G164" t="s">
-        <v>1661</v>
+        <v>1660</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1642</v>
       </c>
       <c r="J164" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K164" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>309</v>
       </c>
@@ -10032,13 +10004,13 @@
         <v>144</v>
       </c>
       <c r="G165" t="s">
-        <v>1920</v>
-      </c>
-      <c r="K165" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J165" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>310</v>
       </c>
@@ -10058,13 +10030,13 @@
         <v>251</v>
       </c>
       <c r="G166" t="s">
-        <v>1921</v>
-      </c>
-      <c r="K166" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J166" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>312</v>
       </c>
@@ -10084,10 +10056,10 @@
         <v>293</v>
       </c>
       <c r="G167" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>312</v>
       </c>
@@ -10107,10 +10079,10 @@
         <v>293</v>
       </c>
       <c r="G168" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>314</v>
       </c>
@@ -10130,16 +10102,16 @@
         <v>417</v>
       </c>
       <c r="G169" t="s">
-        <v>1664</v>
+        <v>1663</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1642</v>
       </c>
       <c r="J169" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K169" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>316</v>
       </c>
@@ -10159,7 +10131,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>318</v>
       </c>
@@ -10179,13 +10151,13 @@
         <v>421</v>
       </c>
       <c r="G171" t="s">
-        <v>1922</v>
-      </c>
-      <c r="K171" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J171" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>320</v>
       </c>
@@ -10205,13 +10177,13 @@
         <v>480</v>
       </c>
       <c r="G172" t="s">
-        <v>1923</v>
-      </c>
-      <c r="K172" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J172" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>322</v>
       </c>
@@ -10231,13 +10203,13 @@
         <v>525</v>
       </c>
       <c r="G173" t="s">
-        <v>1695</v>
-      </c>
-      <c r="K173" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J173" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>324</v>
       </c>
@@ -10257,7 +10229,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>326</v>
       </c>
@@ -10277,13 +10249,13 @@
         <v>615</v>
       </c>
       <c r="G175" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K175" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J175" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>328</v>
       </c>
@@ -10303,13 +10275,13 @@
         <v>635</v>
       </c>
       <c r="G176" t="s">
-        <v>1924</v>
-      </c>
-      <c r="K176" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J176" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>330</v>
       </c>
@@ -10329,7 +10301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>330</v>
       </c>
@@ -10349,7 +10321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>332</v>
       </c>
@@ -10369,13 +10341,13 @@
         <v>271</v>
       </c>
       <c r="G179" t="s">
-        <v>1666</v>
-      </c>
-      <c r="K179" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J179" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>334</v>
       </c>
@@ -10395,10 +10367,10 @@
         <v>274</v>
       </c>
       <c r="G180" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>336</v>
       </c>
@@ -10418,16 +10390,16 @@
         <v>767</v>
       </c>
       <c r="G181" t="s">
-        <v>1655</v>
+        <v>1654</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1642</v>
       </c>
       <c r="J181" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K181" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>338</v>
       </c>
@@ -10447,16 +10419,16 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>1668</v>
+        <v>1667</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1642</v>
       </c>
       <c r="J182" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K182" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>339</v>
       </c>
@@ -10476,13 +10448,13 @@
         <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>1660</v>
-      </c>
-      <c r="K183" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J183" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>341</v>
       </c>
@@ -10502,13 +10474,13 @@
         <v>46</v>
       </c>
       <c r="G184" t="s">
-        <v>1669</v>
-      </c>
-      <c r="K184" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J184" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>343</v>
       </c>
@@ -10528,10 +10500,10 @@
         <v>77</v>
       </c>
       <c r="G185" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>343</v>
       </c>
@@ -10551,10 +10523,10 @@
         <v>77</v>
       </c>
       <c r="G186" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>345</v>
       </c>
@@ -10574,7 +10546,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>347</v>
       </c>
@@ -10594,10 +10566,10 @@
         <v>169</v>
       </c>
       <c r="G188" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>349</v>
       </c>
@@ -10617,16 +10589,16 @@
         <v>231</v>
       </c>
       <c r="G189" t="s">
-        <v>1659</v>
+        <v>1658</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1642</v>
       </c>
       <c r="J189" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K189" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>351</v>
       </c>
@@ -10646,7 +10618,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>352</v>
       </c>
@@ -10669,7 +10641,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>354</v>
       </c>
@@ -10689,7 +10661,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>356</v>
       </c>
@@ -10709,7 +10681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>357</v>
       </c>
@@ -10729,17 +10701,17 @@
         <v>28</v>
       </c>
       <c r="G194" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I194" t="s">
         <v>1672</v>
       </c>
-      <c r="J194" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>359</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C195">
@@ -10755,7 +10727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>359</v>
       </c>
@@ -10775,7 +10747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>360</v>
       </c>
@@ -10795,7 +10767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>362</v>
       </c>
@@ -10815,7 +10787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>364</v>
       </c>
@@ -10835,7 +10807,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>364</v>
       </c>
@@ -10855,7 +10827,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>366</v>
       </c>
@@ -10875,10 +10847,10 @@
         <v>587</v>
       </c>
       <c r="G201" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>368</v>
       </c>
@@ -10898,13 +10870,13 @@
         <v>681</v>
       </c>
       <c r="G202" t="s">
-        <v>1925</v>
-      </c>
-      <c r="K202" t="s">
+        <v>1922</v>
+      </c>
+      <c r="J202" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>370</v>
       </c>
@@ -10924,13 +10896,13 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>1926</v>
-      </c>
-      <c r="K203" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J203" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>371</v>
       </c>
@@ -10950,7 +10922,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>373</v>
       </c>
@@ -10970,13 +10942,13 @@
         <v>476</v>
       </c>
       <c r="G205" t="s">
-        <v>1927</v>
-      </c>
-      <c r="K205" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J205" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>375</v>
       </c>
@@ -10996,7 +10968,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>377</v>
       </c>
@@ -11016,7 +10988,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>378</v>
       </c>
@@ -11036,10 +11008,10 @@
         <v>762</v>
       </c>
       <c r="G208" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>379</v>
       </c>
@@ -11059,10 +11031,10 @@
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>381</v>
       </c>
@@ -11082,7 +11054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>383</v>
       </c>
@@ -11102,10 +11074,10 @@
         <v>80</v>
       </c>
       <c r="G211" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>385</v>
       </c>
@@ -11125,13 +11097,13 @@
         <v>126</v>
       </c>
       <c r="G212" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K212" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J212" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>387</v>
       </c>
@@ -11151,10 +11123,10 @@
         <v>190</v>
       </c>
       <c r="G213" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>389</v>
       </c>
@@ -11174,7 +11146,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>391</v>
       </c>
@@ -11194,10 +11166,10 @@
         <v>280</v>
       </c>
       <c r="G215" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>393</v>
       </c>
@@ -11217,10 +11189,10 @@
         <v>308</v>
       </c>
       <c r="G216" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>395</v>
       </c>
@@ -11240,7 +11212,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>397</v>
       </c>
@@ -11260,7 +11232,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>398</v>
       </c>
@@ -11280,13 +11252,13 @@
         <v>430</v>
       </c>
       <c r="G219" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J219" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1683</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>400</v>
       </c>
@@ -11306,13 +11278,13 @@
         <v>580</v>
       </c>
       <c r="G220" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J220" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1683</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>402</v>
       </c>
@@ -11332,11 +11304,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>404</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>405</v>
       </c>
       <c r="C222">
@@ -11352,7 +11324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>406</v>
       </c>
@@ -11372,7 +11344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>407</v>
       </c>
@@ -11395,7 +11367,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>409</v>
       </c>
@@ -11415,7 +11387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>411</v>
       </c>
@@ -11435,7 +11407,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>411</v>
       </c>
@@ -11455,7 +11427,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>412</v>
       </c>
@@ -11475,10 +11447,10 @@
         <v>178</v>
       </c>
       <c r="G228" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>414</v>
       </c>
@@ -11497,11 +11469,11 @@
       <c r="F229">
         <v>192</v>
       </c>
-      <c r="I229" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H229" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>416</v>
       </c>
@@ -11521,7 +11493,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>418</v>
       </c>
@@ -11541,10 +11513,10 @@
         <v>287</v>
       </c>
       <c r="G231" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>420</v>
       </c>
@@ -11564,10 +11536,10 @@
         <v>327</v>
       </c>
       <c r="G232" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>422</v>
       </c>
@@ -11587,10 +11559,10 @@
         <v>425</v>
       </c>
       <c r="G233" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>424</v>
       </c>
@@ -11610,10 +11582,10 @@
         <v>427</v>
       </c>
       <c r="G234" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>426</v>
       </c>
@@ -11633,10 +11605,10 @@
         <v>431</v>
       </c>
       <c r="G235" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>428</v>
       </c>
@@ -11659,7 +11631,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>430</v>
       </c>
@@ -11679,7 +11651,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>431</v>
       </c>
@@ -11699,10 +11671,10 @@
         <v>448</v>
       </c>
       <c r="G238" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>433</v>
       </c>
@@ -11722,10 +11694,10 @@
         <v>449</v>
       </c>
       <c r="G239" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>435</v>
       </c>
@@ -11745,13 +11717,13 @@
         <v>526</v>
       </c>
       <c r="G240" t="s">
-        <v>1693</v>
-      </c>
-      <c r="K240" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J240" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>437</v>
       </c>
@@ -11771,13 +11743,13 @@
         <v>528</v>
       </c>
       <c r="G241" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K241" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J241" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>439</v>
       </c>
@@ -11797,7 +11769,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>441</v>
       </c>
@@ -11817,10 +11789,10 @@
         <v>564</v>
       </c>
       <c r="G243" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>443</v>
       </c>
@@ -11840,10 +11812,10 @@
         <v>568</v>
       </c>
       <c r="G244" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>445</v>
       </c>
@@ -11863,10 +11835,10 @@
         <v>569</v>
       </c>
       <c r="G245" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>447</v>
       </c>
@@ -11886,10 +11858,10 @@
         <v>576</v>
       </c>
       <c r="G246" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>449</v>
       </c>
@@ -11909,10 +11881,10 @@
         <v>581</v>
       </c>
       <c r="G247" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>451</v>
       </c>
@@ -11935,7 +11907,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>453</v>
       </c>
@@ -11955,10 +11927,10 @@
         <v>636</v>
       </c>
       <c r="G249" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>455</v>
       </c>
@@ -11978,10 +11950,10 @@
         <v>652</v>
       </c>
       <c r="G250" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>457</v>
       </c>
@@ -12004,7 +11976,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>459</v>
       </c>
@@ -12027,7 +11999,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>461</v>
       </c>
@@ -12047,10 +12019,10 @@
         <v>671</v>
       </c>
       <c r="G253" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>463</v>
       </c>
@@ -12070,7 +12042,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>465</v>
       </c>
@@ -12090,7 +12062,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>467</v>
       </c>
@@ -12110,16 +12082,16 @@
         <v>41</v>
       </c>
       <c r="G256" t="s">
-        <v>1699</v>
+        <v>1698</v>
+      </c>
+      <c r="I256" t="s">
+        <v>1642</v>
       </c>
       <c r="J256" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K256" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>468</v>
       </c>
@@ -12139,7 +12111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>470</v>
       </c>
@@ -12159,7 +12131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>472</v>
       </c>
@@ -12179,16 +12151,16 @@
         <v>142</v>
       </c>
       <c r="G259" t="s">
-        <v>1700</v>
+        <v>1699</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1642</v>
       </c>
       <c r="J259" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K259" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>474</v>
       </c>
@@ -12208,10 +12180,10 @@
         <v>148</v>
       </c>
       <c r="G260" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>474</v>
       </c>
@@ -12231,7 +12203,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>477</v>
       </c>
@@ -12251,13 +12223,13 @@
         <v>186</v>
       </c>
       <c r="G262" t="s">
-        <v>1702</v>
-      </c>
-      <c r="K262" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J262" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>477</v>
       </c>
@@ -12277,13 +12249,13 @@
         <v>186</v>
       </c>
       <c r="G263" t="s">
-        <v>1702</v>
-      </c>
-      <c r="K263" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J263" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>479</v>
       </c>
@@ -12303,13 +12275,13 @@
         <v>240</v>
       </c>
       <c r="G264" t="s">
-        <v>1928</v>
-      </c>
-      <c r="K264" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J264" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>481</v>
       </c>
@@ -12329,7 +12301,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>483</v>
       </c>
@@ -12349,10 +12321,10 @@
         <v>305</v>
       </c>
       <c r="G266" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>485</v>
       </c>
@@ -12375,7 +12347,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>486</v>
       </c>
@@ -12395,10 +12367,10 @@
         <v>572</v>
       </c>
       <c r="G268" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>488</v>
       </c>
@@ -12421,7 +12393,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>490</v>
       </c>
@@ -12441,7 +12413,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>492</v>
       </c>
@@ -12461,7 +12433,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>494</v>
       </c>
@@ -12481,10 +12453,10 @@
         <v>659</v>
       </c>
       <c r="G272" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>496</v>
       </c>
@@ -12507,7 +12479,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>498</v>
       </c>
@@ -12527,7 +12499,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>500</v>
       </c>
@@ -12550,7 +12522,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>502</v>
       </c>
@@ -12570,7 +12542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>504</v>
       </c>
@@ -12589,14 +12561,14 @@
       <c r="F277">
         <v>63</v>
       </c>
+      <c r="H277" t="s">
+        <v>1705</v>
+      </c>
       <c r="I277" t="s">
-        <v>1706</v>
-      </c>
-      <c r="J277" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>506</v>
       </c>
@@ -12616,13 +12588,13 @@
         <v>118</v>
       </c>
       <c r="G278" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K278" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J278" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>508</v>
       </c>
@@ -12641,17 +12613,17 @@
       <c r="F279">
         <v>124</v>
       </c>
+      <c r="H279" t="s">
+        <v>1707</v>
+      </c>
       <c r="I279" t="s">
-        <v>1708</v>
+        <v>1642</v>
       </c>
       <c r="J279" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K279" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>510</v>
       </c>
@@ -12671,13 +12643,13 @@
         <v>125</v>
       </c>
       <c r="G280" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K280" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J280" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>512</v>
       </c>
@@ -12697,13 +12669,13 @@
         <v>145</v>
       </c>
       <c r="G281" t="s">
-        <v>1710</v>
-      </c>
-      <c r="K281" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J281" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>514</v>
       </c>
@@ -12723,10 +12695,10 @@
         <v>172</v>
       </c>
       <c r="G282" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>516</v>
       </c>
@@ -12746,7 +12718,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>518</v>
       </c>
@@ -12766,10 +12738,10 @@
         <v>203</v>
       </c>
       <c r="G284" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>520</v>
       </c>
@@ -12789,10 +12761,10 @@
         <v>232</v>
       </c>
       <c r="G285" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>521</v>
       </c>
@@ -12815,7 +12787,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>523</v>
       </c>
@@ -12835,10 +12807,10 @@
         <v>272</v>
       </c>
       <c r="G287" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>524</v>
       </c>
@@ -12858,7 +12830,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>526</v>
       </c>
@@ -12878,10 +12850,10 @@
         <v>319</v>
       </c>
       <c r="G289" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>528</v>
       </c>
@@ -12901,10 +12873,10 @@
         <v>325</v>
       </c>
       <c r="G290" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>530</v>
       </c>
@@ -12927,7 +12899,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>532</v>
       </c>
@@ -12947,16 +12919,16 @@
         <v>373</v>
       </c>
       <c r="G292" t="s">
-        <v>1717</v>
+        <v>1716</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1642</v>
       </c>
       <c r="J292" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K292" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>534</v>
       </c>
@@ -12976,16 +12948,16 @@
         <v>374</v>
       </c>
       <c r="G293" t="s">
-        <v>1716</v>
+        <v>1715</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1642</v>
       </c>
       <c r="J293" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K293" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>536</v>
       </c>
@@ -13004,14 +12976,14 @@
       <c r="F294">
         <v>464</v>
       </c>
-      <c r="I294" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K294" t="s">
+      <c r="H294" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J294" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>538</v>
       </c>
@@ -13031,7 +13003,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>540</v>
       </c>
@@ -13051,10 +13023,10 @@
         <v>510</v>
       </c>
       <c r="G296" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>542</v>
       </c>
@@ -13074,7 +13046,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>544</v>
       </c>
@@ -13097,7 +13069,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>546</v>
       </c>
@@ -13117,7 +13089,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>547</v>
       </c>
@@ -13137,11 +13109,11 @@
         <v>908</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>549</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C301">
@@ -13157,10 +13129,10 @@
         <v>65</v>
       </c>
       <c r="G301" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>549</v>
       </c>
@@ -13180,14 +13152,14 @@
         <v>65</v>
       </c>
       <c r="G302" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>551</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="3" t="s">
         <v>552</v>
       </c>
       <c r="C303">
@@ -13203,7 +13175,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>553</v>
       </c>
@@ -13223,7 +13195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>554</v>
       </c>
@@ -13243,16 +13215,16 @@
         <v>120</v>
       </c>
       <c r="G305" t="s">
-        <v>1721</v>
+        <v>1720</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1642</v>
       </c>
       <c r="J305" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K305" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>556</v>
       </c>
@@ -13271,14 +13243,14 @@
       <c r="F306">
         <v>122</v>
       </c>
+      <c r="I306" t="s">
+        <v>1672</v>
+      </c>
       <c r="J306" t="s">
-        <v>1673</v>
-      </c>
-      <c r="K306" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>558</v>
       </c>
@@ -13298,7 +13270,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>560</v>
       </c>
@@ -13318,7 +13290,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>562</v>
       </c>
@@ -13338,13 +13310,13 @@
         <v>264</v>
       </c>
       <c r="G309" t="s">
-        <v>1722</v>
-      </c>
-      <c r="K309" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J309" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>564</v>
       </c>
@@ -13364,13 +13336,13 @@
         <v>276</v>
       </c>
       <c r="G310" t="s">
-        <v>1723</v>
-      </c>
-      <c r="K310" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J310" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>566</v>
       </c>
@@ -13390,7 +13362,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>568</v>
       </c>
@@ -13410,10 +13382,10 @@
         <v>306</v>
       </c>
       <c r="G312" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>570</v>
       </c>
@@ -13433,10 +13405,10 @@
         <v>316</v>
       </c>
       <c r="G313" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>572</v>
       </c>
@@ -13456,10 +13428,10 @@
         <v>320</v>
       </c>
       <c r="G314" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>574</v>
       </c>
@@ -13479,10 +13451,10 @@
         <v>326</v>
       </c>
       <c r="G315" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>576</v>
       </c>
@@ -13502,10 +13474,10 @@
         <v>354</v>
       </c>
       <c r="G316" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>578</v>
       </c>
@@ -13528,7 +13500,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>580</v>
       </c>
@@ -13548,7 +13520,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>582</v>
       </c>
@@ -13568,7 +13540,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>584</v>
       </c>
@@ -13588,7 +13560,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>586</v>
       </c>
@@ -13608,7 +13580,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>588</v>
       </c>
@@ -13628,10 +13600,10 @@
         <v>571</v>
       </c>
       <c r="G322" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>590</v>
       </c>
@@ -13651,7 +13623,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>592</v>
       </c>
@@ -13671,10 +13643,10 @@
         <v>622</v>
       </c>
       <c r="G324" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>594</v>
       </c>
@@ -13694,7 +13666,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>596</v>
       </c>
@@ -13714,7 +13686,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>598</v>
       </c>
@@ -13734,7 +13706,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>600</v>
       </c>
@@ -13754,7 +13726,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>602</v>
       </c>
@@ -13774,10 +13746,10 @@
         <v>763</v>
       </c>
       <c r="G329" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>604</v>
       </c>
@@ -13797,13 +13769,13 @@
         <v>27</v>
       </c>
       <c r="G330" t="s">
-        <v>1732</v>
-      </c>
-      <c r="K330" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J330" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>604</v>
       </c>
@@ -13823,13 +13795,13 @@
         <v>27</v>
       </c>
       <c r="G331" t="s">
-        <v>1732</v>
-      </c>
-      <c r="K331" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J331" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>606</v>
       </c>
@@ -13849,11 +13821,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>608</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" s="3" t="s">
         <v>609</v>
       </c>
       <c r="C333">
@@ -13869,7 +13841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>610</v>
       </c>
@@ -13889,7 +13861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>612</v>
       </c>
@@ -13909,13 +13881,13 @@
         <v>123</v>
       </c>
       <c r="G335" t="s">
-        <v>1907</v>
-      </c>
-      <c r="K335" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J335" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>613</v>
       </c>
@@ -13935,7 +13907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>615</v>
       </c>
@@ -13955,13 +13927,13 @@
         <v>209</v>
       </c>
       <c r="G337" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K337" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J337" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>617</v>
       </c>
@@ -13981,7 +13953,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>619</v>
       </c>
@@ -14001,7 +13973,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>621</v>
       </c>
@@ -14021,7 +13993,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>623</v>
       </c>
@@ -14044,7 +14016,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>625</v>
       </c>
@@ -14064,10 +14036,10 @@
         <v>346</v>
       </c>
       <c r="G342" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>627</v>
       </c>
@@ -14087,7 +14059,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>628</v>
       </c>
@@ -14107,7 +14079,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>630</v>
       </c>
@@ -14127,7 +14099,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>632</v>
       </c>
@@ -14147,7 +14119,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>634</v>
       </c>
@@ -14166,14 +14138,14 @@
       <c r="F347">
         <v>513</v>
       </c>
+      <c r="H347" t="s">
+        <v>1733</v>
+      </c>
       <c r="I347" t="s">
-        <v>1734</v>
-      </c>
-      <c r="J347" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>636</v>
       </c>
@@ -14193,7 +14165,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>638</v>
       </c>
@@ -14213,7 +14185,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>640</v>
       </c>
@@ -14233,7 +14205,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>642</v>
       </c>
@@ -14253,7 +14225,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>644</v>
       </c>
@@ -14276,7 +14248,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>644</v>
       </c>
@@ -14299,7 +14271,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>645</v>
       </c>
@@ -14319,7 +14291,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>646</v>
       </c>
@@ -14339,7 +14311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>648</v>
       </c>
@@ -14359,10 +14331,10 @@
         <v>23</v>
       </c>
       <c r="G356" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>648</v>
       </c>
@@ -14382,10 +14354,10 @@
         <v>23</v>
       </c>
       <c r="G357" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>650</v>
       </c>
@@ -14405,7 +14377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>652</v>
       </c>
@@ -14425,7 +14397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>654</v>
       </c>
@@ -14445,10 +14417,10 @@
         <v>171</v>
       </c>
       <c r="G360" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>654</v>
       </c>
@@ -14468,10 +14440,10 @@
         <v>171</v>
       </c>
       <c r="G361" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>656</v>
       </c>
@@ -14491,7 +14463,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>658</v>
       </c>
@@ -14511,7 +14483,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>660</v>
       </c>
@@ -14531,7 +14503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>662</v>
       </c>
@@ -14551,10 +14523,10 @@
         <v>300</v>
       </c>
       <c r="G365" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>664</v>
       </c>
@@ -14577,7 +14549,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>666</v>
       </c>
@@ -14597,10 +14569,10 @@
         <v>462</v>
       </c>
       <c r="G367" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>668</v>
       </c>
@@ -14619,11 +14591,11 @@
       <c r="F368">
         <v>481</v>
       </c>
+      <c r="H368" t="s">
+        <v>1737</v>
+      </c>
       <c r="I368" t="s">
-        <v>1738</v>
-      </c>
-      <c r="J368" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -14872,7 +14844,7 @@
         <v>175</v>
       </c>
       <c r="G380" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -14958,7 +14930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>699</v>
       </c>
@@ -14978,7 +14950,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>701</v>
       </c>
@@ -14998,7 +14970,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>703</v>
       </c>
@@ -15018,7 +14990,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>705</v>
       </c>
@@ -15038,10 +15010,10 @@
         <v>571</v>
       </c>
       <c r="G388" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>707</v>
       </c>
@@ -15061,7 +15033,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>709</v>
       </c>
@@ -15081,7 +15053,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>711</v>
       </c>
@@ -15101,7 +15073,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>713</v>
       </c>
@@ -15121,7 +15093,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>715</v>
       </c>
@@ -15141,7 +15113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>717</v>
       </c>
@@ -15161,13 +15133,13 @@
         <v>39</v>
       </c>
       <c r="G394" t="s">
-        <v>1741</v>
-      </c>
-      <c r="K394" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J394" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>718</v>
       </c>
@@ -15187,7 +15159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>720</v>
       </c>
@@ -15206,14 +15178,14 @@
       <c r="F396">
         <v>109</v>
       </c>
+      <c r="H396" t="s">
+        <v>1741</v>
+      </c>
       <c r="I396" t="s">
-        <v>1742</v>
-      </c>
-      <c r="J396" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>722</v>
       </c>
@@ -15233,10 +15205,10 @@
         <v>139</v>
       </c>
       <c r="G397" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>723</v>
       </c>
@@ -15259,7 +15231,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>725</v>
       </c>
@@ -15279,7 +15251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>727</v>
       </c>
@@ -15299,13 +15271,13 @@
         <v>275</v>
       </c>
       <c r="G400" t="s">
-        <v>1743</v>
-      </c>
-      <c r="K400" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J400" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>728</v>
       </c>
@@ -15325,7 +15297,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>729</v>
       </c>
@@ -15345,7 +15317,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>731</v>
       </c>
@@ -15368,7 +15340,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>733</v>
       </c>
@@ -15388,7 +15360,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>735</v>
       </c>
@@ -15408,10 +15380,10 @@
         <v>694</v>
       </c>
       <c r="G405" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>735</v>
       </c>
@@ -15431,12 +15403,11 @@
         <v>694</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>737</v>
       </c>
@@ -15456,7 +15427,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>739</v>
       </c>
@@ -15476,7 +15447,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>740</v>
       </c>
@@ -15496,11 +15467,11 @@
         <v>793</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>742</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" s="3" t="s">
         <v>743</v>
       </c>
       <c r="C410">
@@ -15516,16 +15487,16 @@
         <v>24</v>
       </c>
       <c r="G410" t="s">
-        <v>1746</v>
+        <v>1745</v>
+      </c>
+      <c r="I410" t="s">
+        <v>1642</v>
       </c>
       <c r="J410" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K410" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>744</v>
       </c>
@@ -15545,7 +15516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>746</v>
       </c>
@@ -15565,7 +15536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>747</v>
       </c>
@@ -15588,7 +15559,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>749</v>
       </c>
@@ -15608,7 +15579,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>750</v>
       </c>
@@ -15631,7 +15602,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>752</v>
       </c>
@@ -15651,7 +15622,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>753</v>
       </c>
@@ -15673,11 +15644,11 @@
       <c r="G417" t="s">
         <v>1396</v>
       </c>
-      <c r="K417" t="s">
+      <c r="J417" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>753</v>
       </c>
@@ -15699,11 +15670,11 @@
       <c r="G418" t="s">
         <v>1396</v>
       </c>
-      <c r="K418" t="s">
+      <c r="J418" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>754</v>
       </c>
@@ -15723,13 +15694,13 @@
         <v>270</v>
       </c>
       <c r="G419" t="s">
-        <v>1747</v>
-      </c>
-      <c r="K419" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J419" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>756</v>
       </c>
@@ -15749,7 +15720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>757</v>
       </c>
@@ -15772,7 +15743,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>759</v>
       </c>
@@ -15792,7 +15763,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>761</v>
       </c>
@@ -15812,7 +15783,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>763</v>
       </c>
@@ -15831,14 +15802,14 @@
       <c r="F424">
         <v>612</v>
       </c>
-      <c r="I424" t="s">
-        <v>1748</v>
-      </c>
-      <c r="K424" t="s">
+      <c r="H424" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J424" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>765</v>
       </c>
@@ -15858,10 +15829,10 @@
         <v>651</v>
       </c>
       <c r="G425" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>767</v>
       </c>
@@ -15881,7 +15852,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>769</v>
       </c>
@@ -15901,13 +15872,13 @@
         <v>140</v>
       </c>
       <c r="G427" t="s">
-        <v>1750</v>
-      </c>
-      <c r="K427" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J427" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>771</v>
       </c>
@@ -15930,7 +15901,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>773</v>
       </c>
@@ -15950,10 +15921,10 @@
         <v>254</v>
       </c>
       <c r="G429" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>775</v>
       </c>
@@ -15973,10 +15944,10 @@
         <v>255</v>
       </c>
       <c r="G430" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>777</v>
       </c>
@@ -15996,7 +15967,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>779</v>
       </c>
@@ -16019,7 +15990,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>781</v>
       </c>
@@ -16042,7 +16013,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>783</v>
       </c>
@@ -16062,10 +16033,10 @@
         <v>335</v>
       </c>
       <c r="G434" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>785</v>
       </c>
@@ -16088,7 +16059,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>785</v>
       </c>
@@ -16111,7 +16082,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>787</v>
       </c>
@@ -16131,7 +16102,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>789</v>
       </c>
@@ -16154,7 +16125,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>790</v>
       </c>
@@ -16174,7 +16145,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>792</v>
       </c>
@@ -16194,7 +16165,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>793</v>
       </c>
@@ -16214,7 +16185,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>795</v>
       </c>
@@ -16234,7 +16205,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>796</v>
       </c>
@@ -16254,7 +16225,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>798</v>
       </c>
@@ -16277,12 +16248,11 @@
         <v>1399</v>
       </c>
       <c r="H444" s="1"/>
-      <c r="I444" s="1"/>
-      <c r="K444" t="s">
+      <c r="J444" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>800</v>
       </c>
@@ -16302,7 +16272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>802</v>
       </c>
@@ -16322,7 +16292,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>804</v>
       </c>
@@ -16342,7 +16312,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>805</v>
       </c>
@@ -16362,7 +16332,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>807</v>
       </c>
@@ -16382,7 +16352,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>808</v>
       </c>
@@ -16405,7 +16375,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>810</v>
       </c>
@@ -16425,7 +16395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>812</v>
       </c>
@@ -16445,7 +16415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>813</v>
       </c>
@@ -16465,7 +16435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>815</v>
       </c>
@@ -16485,7 +16455,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>817</v>
       </c>
@@ -16507,11 +16477,11 @@
       <c r="G455" t="s">
         <v>1400</v>
       </c>
-      <c r="K455" t="s">
+      <c r="J455" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>818</v>
       </c>
@@ -16530,13 +16500,12 @@
       <c r="F456">
         <v>185</v>
       </c>
-      <c r="G456" s="10" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H456" s="3"/>
-      <c r="I456" s="3"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G456" s="9" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H456" s="2"/>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>820</v>
       </c>
@@ -16559,7 +16528,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>822</v>
       </c>
@@ -16579,7 +16548,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>824</v>
       </c>
@@ -16602,9 +16571,9 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A460" s="4" t="s">
-        <v>1888</v>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A460" s="3" t="s">
+        <v>1886</v>
       </c>
       <c r="B460" t="s">
         <v>826</v>
@@ -16625,7 +16594,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>827</v>
       </c>
@@ -16646,9 +16615,8 @@
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
-      <c r="I461" s="1"/>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>828</v>
       </c>
@@ -16671,9 +16639,8 @@
         <v>1439</v>
       </c>
       <c r="H462" s="1"/>
-      <c r="I462" s="1"/>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>830</v>
       </c>
@@ -16693,7 +16660,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>832</v>
       </c>
@@ -16713,7 +16680,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>834</v>
       </c>
@@ -16733,7 +16700,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>835</v>
       </c>
@@ -16753,7 +16720,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>836</v>
       </c>
@@ -16773,7 +16740,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>838</v>
       </c>
@@ -16793,7 +16760,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>840</v>
       </c>
@@ -16813,7 +16780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>842</v>
       </c>
@@ -16833,7 +16800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>844</v>
       </c>
@@ -16853,10 +16820,10 @@
         <v>10</v>
       </c>
       <c r="G471" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>846</v>
       </c>
@@ -16875,11 +16842,11 @@
       <c r="F472">
         <v>12</v>
       </c>
-      <c r="I472" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H472" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>848</v>
       </c>
@@ -16899,7 +16866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>850</v>
       </c>
@@ -16919,10 +16886,10 @@
         <v>14</v>
       </c>
       <c r="G474" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>852</v>
       </c>
@@ -16942,15 +16909,14 @@
         <v>47</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H475" s="1"/>
-      <c r="I475" s="1"/>
-      <c r="K475" t="s">
+      <c r="J475" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>853</v>
       </c>
@@ -16970,7 +16936,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>855</v>
       </c>
@@ -16990,9 +16956,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A478" s="4" t="s">
-        <v>1889</v>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A478" s="3" t="s">
+        <v>1887</v>
       </c>
       <c r="B478" t="s">
         <v>857</v>
@@ -17013,9 +16979,8 @@
         <v>1440</v>
       </c>
       <c r="H478" s="1"/>
-      <c r="I478" s="1"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>858</v>
       </c>
@@ -17035,13 +17000,13 @@
         <v>223</v>
       </c>
       <c r="G479" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I479" t="s">
         <v>1759</v>
       </c>
-      <c r="J479" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>860</v>
       </c>
@@ -17061,7 +17026,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>862</v>
       </c>
@@ -17081,7 +17046,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>863</v>
       </c>
@@ -17101,7 +17066,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>864</v>
       </c>
@@ -17121,7 +17086,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>866</v>
       </c>
@@ -17141,7 +17106,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>868</v>
       </c>
@@ -17161,7 +17126,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>870</v>
       </c>
@@ -17181,7 +17146,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>872</v>
       </c>
@@ -17204,9 +17169,8 @@
         <v>1441</v>
       </c>
       <c r="H487" s="1"/>
-      <c r="I487" s="1"/>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>874</v>
       </c>
@@ -17229,7 +17193,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>876</v>
       </c>
@@ -17249,13 +17213,13 @@
         <v>25</v>
       </c>
       <c r="G489" t="s">
-        <v>1913</v>
-      </c>
-      <c r="K489" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J489" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>878</v>
       </c>
@@ -17278,7 +17242,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>880</v>
       </c>
@@ -17298,7 +17262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>882</v>
       </c>
@@ -17321,7 +17285,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>884</v>
       </c>
@@ -17341,7 +17305,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>886</v>
       </c>
@@ -17364,7 +17328,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>888</v>
       </c>
@@ -17383,11 +17347,11 @@
       <c r="F495">
         <v>187</v>
       </c>
-      <c r="I495" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H495" s="3" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>890</v>
       </c>
@@ -17410,7 +17374,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>892</v>
       </c>
@@ -17430,7 +17394,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>894</v>
       </c>
@@ -17450,7 +17414,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>896</v>
       </c>
@@ -17470,13 +17434,13 @@
         <v>464</v>
       </c>
       <c r="G499" t="s">
-        <v>1762</v>
-      </c>
-      <c r="K499" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J499" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>896</v>
       </c>
@@ -17496,13 +17460,13 @@
         <v>464</v>
       </c>
       <c r="G500" t="s">
-        <v>1762</v>
-      </c>
-      <c r="K500" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J500" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>898</v>
       </c>
@@ -17521,11 +17485,11 @@
       <c r="F501">
         <v>490</v>
       </c>
-      <c r="I501" t="s">
+      <c r="H501" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>900</v>
       </c>
@@ -17545,7 +17509,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>902</v>
       </c>
@@ -17565,10 +17529,10 @@
         <v>608</v>
       </c>
       <c r="G503" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>904</v>
       </c>
@@ -17590,11 +17554,11 @@
       <c r="G504" t="s">
         <v>1445</v>
       </c>
-      <c r="J504" t="s">
+      <c r="I504" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>905</v>
       </c>
@@ -17614,7 +17578,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>907</v>
       </c>
@@ -17637,7 +17601,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>909</v>
       </c>
@@ -17657,7 +17621,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>911</v>
       </c>
@@ -17677,7 +17641,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>913</v>
       </c>
@@ -17700,7 +17664,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>915</v>
       </c>
@@ -17720,13 +17684,13 @@
         <v>143</v>
       </c>
       <c r="G510" t="s">
-        <v>1764</v>
-      </c>
-      <c r="K510" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J510" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>917</v>
       </c>
@@ -17749,7 +17713,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>919</v>
       </c>
@@ -17772,7 +17736,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>921</v>
       </c>
@@ -17795,7 +17759,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>923</v>
       </c>
@@ -17818,7 +17782,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>925</v>
       </c>
@@ -17838,10 +17802,10 @@
         <v>588</v>
       </c>
       <c r="G515" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>927</v>
       </c>
@@ -17861,7 +17825,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>929</v>
       </c>
@@ -17881,13 +17845,13 @@
         <v>606</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="K517" t="s">
+        <v>1911</v>
+      </c>
+      <c r="J517" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>931</v>
       </c>
@@ -17907,7 +17871,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>932</v>
       </c>
@@ -17927,10 +17891,10 @@
         <v>771</v>
       </c>
       <c r="G519" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>934</v>
       </c>
@@ -17950,10 +17914,10 @@
         <v>115</v>
       </c>
       <c r="G520" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>936</v>
       </c>
@@ -17976,7 +17940,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>936</v>
       </c>
@@ -17999,7 +17963,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>937</v>
       </c>
@@ -18022,7 +17986,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>939</v>
       </c>
@@ -18045,7 +18009,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>941</v>
       </c>
@@ -18065,7 +18029,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>943</v>
       </c>
@@ -18084,11 +18048,11 @@
       <c r="F526">
         <v>291</v>
       </c>
-      <c r="I526" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H526" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>945</v>
       </c>
@@ -18111,7 +18075,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>947</v>
       </c>
@@ -18131,7 +18095,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>949</v>
       </c>
@@ -18154,7 +18118,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>951</v>
       </c>
@@ -18174,7 +18138,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>953</v>
       </c>
@@ -18197,7 +18161,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>954</v>
       </c>
@@ -18217,7 +18181,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>956</v>
       </c>
@@ -18237,7 +18201,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>957</v>
       </c>
@@ -18256,11 +18220,11 @@
       <c r="F534">
         <v>67</v>
       </c>
-      <c r="I534" t="s">
+      <c r="H534" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>957</v>
       </c>
@@ -18279,11 +18243,11 @@
       <c r="F535">
         <v>67</v>
       </c>
-      <c r="I535" t="s">
+      <c r="H535" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>959</v>
       </c>
@@ -18302,11 +18266,11 @@
       <c r="F536">
         <v>72</v>
       </c>
-      <c r="I536" t="s">
+      <c r="H536" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>959</v>
       </c>
@@ -18325,11 +18289,11 @@
       <c r="F537">
         <v>72</v>
       </c>
-      <c r="I537" t="s">
+      <c r="H537" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>961</v>
       </c>
@@ -18352,7 +18316,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>963</v>
       </c>
@@ -18371,13 +18335,12 @@
       <c r="F539">
         <v>239</v>
       </c>
-      <c r="G539" s="10" t="s">
-        <v>1915</v>
-      </c>
-      <c r="H539" s="3"/>
-      <c r="I539" s="3"/>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G539" s="9" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H539" s="2"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>965</v>
       </c>
@@ -18397,10 +18360,10 @@
         <v>324</v>
       </c>
       <c r="G540" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>967</v>
       </c>
@@ -18420,10 +18383,10 @@
         <v>331</v>
       </c>
       <c r="G541" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>969</v>
       </c>
@@ -18446,7 +18409,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>971</v>
       </c>
@@ -18469,7 +18432,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>973</v>
       </c>
@@ -18492,7 +18455,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>975</v>
       </c>
@@ -18515,7 +18478,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>977</v>
       </c>
@@ -18534,14 +18497,14 @@
       <c r="F546">
         <v>812</v>
       </c>
-      <c r="I546" t="s">
+      <c r="H546" t="s">
         <v>1414</v>
       </c>
-      <c r="K546" t="s">
+      <c r="J546" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>979</v>
       </c>
@@ -18561,7 +18524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>980</v>
       </c>
@@ -18584,7 +18547,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>982</v>
       </c>
@@ -18607,7 +18570,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>984</v>
       </c>
@@ -18630,7 +18593,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>986</v>
       </c>
@@ -18650,13 +18613,13 @@
         <v>204</v>
       </c>
       <c r="G551" t="s">
-        <v>1770</v>
-      </c>
-      <c r="K551" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J551" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>987</v>
       </c>
@@ -18679,7 +18642,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>989</v>
       </c>
@@ -18702,7 +18665,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>991</v>
       </c>
@@ -18725,7 +18688,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>993</v>
       </c>
@@ -18745,7 +18708,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>995</v>
       </c>
@@ -18768,7 +18731,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>997</v>
       </c>
@@ -18791,7 +18754,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>999</v>
       </c>
@@ -18811,7 +18774,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1001</v>
       </c>
@@ -18831,7 +18794,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1002</v>
       </c>
@@ -18854,7 +18817,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1003</v>
       </c>
@@ -18877,7 +18840,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1005</v>
       </c>
@@ -18897,10 +18860,10 @@
         <v>69</v>
       </c>
       <c r="G562" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1007</v>
       </c>
@@ -18920,14 +18883,14 @@
         <v>70</v>
       </c>
       <c r="G563" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1009</v>
       </c>
-      <c r="B564" s="4" t="s">
+      <c r="B564" s="3" t="s">
         <v>1010</v>
       </c>
       <c r="C564">
@@ -18943,7 +18906,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1011</v>
       </c>
@@ -18963,7 +18926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1013</v>
       </c>
@@ -18982,11 +18945,11 @@
       <c r="F566">
         <v>166</v>
       </c>
-      <c r="I566" t="s">
+      <c r="H566" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1015</v>
       </c>
@@ -19006,13 +18969,13 @@
         <v>209</v>
       </c>
       <c r="G567" t="s">
-        <v>1772</v>
-      </c>
-      <c r="K567" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J567" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1015</v>
       </c>
@@ -19032,15 +18995,15 @@
         <v>209</v>
       </c>
       <c r="G568" t="s">
-        <v>1772</v>
-      </c>
-      <c r="K568" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J568" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A569" s="4" t="s">
-        <v>1890</v>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A569" s="3" t="s">
+        <v>1888</v>
       </c>
       <c r="B569" t="s">
         <v>1017</v>
@@ -19061,7 +19024,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1018</v>
       </c>
@@ -19084,7 +19047,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1018</v>
       </c>
@@ -19107,7 +19070,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1020</v>
       </c>
@@ -19127,10 +19090,10 @@
         <v>379</v>
       </c>
       <c r="G572" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1022</v>
       </c>
@@ -19153,7 +19116,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1024</v>
       </c>
@@ -19176,7 +19139,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1026</v>
       </c>
@@ -19198,11 +19161,11 @@
       <c r="G575" t="s">
         <v>1577</v>
       </c>
-      <c r="K575" t="s">
+      <c r="J575" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1027</v>
       </c>
@@ -19225,7 +19188,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1029</v>
       </c>
@@ -19248,7 +19211,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1031</v>
       </c>
@@ -19271,7 +19234,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1033</v>
       </c>
@@ -19291,10 +19254,10 @@
         <v>787</v>
       </c>
       <c r="G579" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1035</v>
       </c>
@@ -19317,12 +19280,11 @@
         <v>1421</v>
       </c>
       <c r="H580" s="1"/>
-      <c r="I580" s="1"/>
-      <c r="J580" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I580" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1037</v>
       </c>
@@ -19342,7 +19304,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1039</v>
       </c>
@@ -19365,7 +19327,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1041</v>
       </c>
@@ -19388,7 +19350,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1043</v>
       </c>
@@ -19411,7 +19373,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1045</v>
       </c>
@@ -19434,7 +19396,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1047</v>
       </c>
@@ -19457,7 +19419,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1049</v>
       </c>
@@ -19480,7 +19442,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1051</v>
       </c>
@@ -19503,7 +19465,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1053</v>
       </c>
@@ -19523,13 +19485,13 @@
         <v>821</v>
       </c>
       <c r="G589" t="s">
-        <v>1916</v>
-      </c>
-      <c r="K589" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J589" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1055</v>
       </c>
@@ -19552,7 +19514,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1057</v>
       </c>
@@ -19575,7 +19537,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1059</v>
       </c>
@@ -19598,7 +19560,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1060</v>
       </c>
@@ -19621,7 +19583,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1062</v>
       </c>
@@ -19644,7 +19606,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1064</v>
       </c>
@@ -19667,7 +19629,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1066</v>
       </c>
@@ -19690,7 +19652,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1068</v>
       </c>
@@ -19713,7 +19675,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1070</v>
       </c>
@@ -19736,7 +19698,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1072</v>
       </c>
@@ -19759,7 +19721,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1074</v>
       </c>
@@ -19782,7 +19744,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1076</v>
       </c>
@@ -19805,7 +19767,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1078</v>
       </c>
@@ -19828,7 +19790,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1080</v>
       </c>
@@ -19851,7 +19813,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1082</v>
       </c>
@@ -19873,11 +19835,11 @@
       <c r="G604" t="s">
         <v>1559</v>
       </c>
-      <c r="J604" t="s">
+      <c r="I604" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>1084</v>
       </c>
@@ -19900,7 +19862,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1086</v>
       </c>
@@ -19923,7 +19885,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1087</v>
       </c>
@@ -19943,10 +19905,10 @@
         <v>551</v>
       </c>
       <c r="G607" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1089</v>
       </c>
@@ -19966,10 +19928,10 @@
         <v>643</v>
       </c>
       <c r="G608" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1091</v>
       </c>
@@ -19992,7 +19954,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1093</v>
       </c>
@@ -20015,7 +19977,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1095</v>
       </c>
@@ -20038,7 +20000,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1097</v>
       </c>
@@ -20057,13 +20019,12 @@
       <c r="F612">
         <v>831</v>
       </c>
-      <c r="G612" s="10" t="s">
-        <v>1917</v>
-      </c>
-      <c r="H612" s="5"/>
-      <c r="I612" s="5"/>
-    </row>
-    <row r="613" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="G612" s="9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H612" s="4"/>
+    </row>
+    <row r="613" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1097</v>
       </c>
@@ -20082,13 +20043,12 @@
       <c r="F613">
         <v>831</v>
       </c>
-      <c r="G613" s="5" t="s">
-        <v>1918</v>
-      </c>
-      <c r="H613" s="5"/>
-      <c r="I613" s="5"/>
-    </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G613" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H613" s="4"/>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1099</v>
       </c>
@@ -20107,14 +20067,14 @@
       <c r="F614">
         <v>836</v>
       </c>
-      <c r="I614" t="s">
-        <v>1777</v>
-      </c>
-      <c r="K614" t="s">
+      <c r="H614" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J614" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1101</v>
       </c>
@@ -20134,13 +20094,13 @@
         <v>838</v>
       </c>
       <c r="G615" t="s">
-        <v>1778</v>
-      </c>
-      <c r="K615" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J615" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1103</v>
       </c>
@@ -20163,7 +20123,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>1105</v>
       </c>
@@ -20186,7 +20146,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1107</v>
       </c>
@@ -20206,7 +20166,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>1108</v>
       </c>
@@ -20226,13 +20186,10 @@
         <v>241</v>
       </c>
       <c r="G619" t="s">
-        <v>1779</v>
-      </c>
-      <c r="J619" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1110</v>
       </c>
@@ -20255,7 +20212,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1112</v>
       </c>
@@ -20278,7 +20235,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1114</v>
       </c>
@@ -20301,7 +20258,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>1115</v>
       </c>
@@ -20324,7 +20281,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>1117</v>
       </c>
@@ -20482,7 +20439,7 @@
         <v>896</v>
       </c>
       <c r="G630" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
@@ -20509,8 +20466,8 @@
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A632" s="4" t="s">
-        <v>1797</v>
+      <c r="A632" s="3" t="s">
+        <v>1795</v>
       </c>
       <c r="B632" t="s">
         <v>1132</v>
@@ -20574,7 +20531,7 @@
         <v>852</v>
       </c>
       <c r="G634" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
@@ -20715,7 +20672,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1148</v>
       </c>
@@ -20738,7 +20695,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1150</v>
       </c>
@@ -20761,7 +20718,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1152</v>
       </c>
@@ -20784,7 +20741,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>1154</v>
       </c>
@@ -20804,7 +20761,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>1156</v>
       </c>
@@ -20827,7 +20784,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>1158</v>
       </c>
@@ -20850,7 +20807,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1160</v>
       </c>
@@ -20873,7 +20830,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1162</v>
       </c>
@@ -20896,7 +20853,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1164</v>
       </c>
@@ -20919,7 +20876,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1166</v>
       </c>
@@ -20938,14 +20895,14 @@
       <c r="F650">
         <v>928</v>
       </c>
+      <c r="G650" s="3" t="s">
+        <v>1780</v>
+      </c>
       <c r="I650" t="s">
-        <v>1782</v>
-      </c>
-      <c r="J650" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1168</v>
       </c>
@@ -20968,7 +20925,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1170</v>
       </c>
@@ -20991,7 +20948,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1172</v>
       </c>
@@ -21014,7 +20971,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1174</v>
       </c>
@@ -21037,7 +20994,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>1176</v>
       </c>
@@ -21056,15 +21013,15 @@
       <c r="F655">
         <v>1000</v>
       </c>
-      <c r="I655" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H655" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1178</v>
       </c>
-      <c r="B656" s="4" t="s">
+      <c r="B656" s="3" t="s">
         <v>1179</v>
       </c>
       <c r="C656">
@@ -21080,12 +21037,12 @@
         <v>82</v>
       </c>
       <c r="G656" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A657" s="4" t="s">
-        <v>1798</v>
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A657" s="3" t="s">
+        <v>1796</v>
       </c>
       <c r="B657" t="s">
         <v>1180</v>
@@ -21106,7 +21063,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1181</v>
       </c>
@@ -21129,7 +21086,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1183</v>
       </c>
@@ -21152,7 +21109,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1184</v>
       </c>
@@ -21175,7 +21132,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1186</v>
       </c>
@@ -21198,9 +21155,9 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A662" s="4" t="s">
-        <v>1799</v>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A662" s="3" t="s">
+        <v>1797</v>
       </c>
       <c r="B662" t="s">
         <v>1188</v>
@@ -21221,7 +21178,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>1189</v>
       </c>
@@ -21240,11 +21197,11 @@
       <c r="F663">
         <v>855</v>
       </c>
-      <c r="I663" t="s">
+      <c r="H663" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>1191</v>
       </c>
@@ -21263,16 +21220,15 @@
       <c r="F664">
         <v>867</v>
       </c>
-      <c r="G664" s="6" t="s">
+      <c r="G664" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="H664" s="6"/>
-      <c r="I664" s="6"/>
-      <c r="J664" t="s">
+      <c r="H664" s="5"/>
+      <c r="I664" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1193</v>
       </c>
@@ -21295,7 +21251,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>1195</v>
       </c>
@@ -21318,7 +21274,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>1197</v>
       </c>
@@ -21341,7 +21297,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1199</v>
       </c>
@@ -21364,7 +21320,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1201</v>
       </c>
@@ -21384,7 +21340,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>1203</v>
       </c>
@@ -21407,7 +21363,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1204</v>
       </c>
@@ -21427,13 +21383,13 @@
         <v>996</v>
       </c>
       <c r="G671" t="s">
-        <v>1785</v>
-      </c>
-      <c r="K671" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J671" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1206</v>
       </c>
@@ -21455,11 +21411,11 @@
       <c r="G672" t="s">
         <v>1568</v>
       </c>
-      <c r="K672" t="s">
+      <c r="J672" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1208</v>
       </c>
@@ -21479,10 +21435,10 @@
         <v>1043</v>
       </c>
       <c r="G673" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>1210</v>
       </c>
@@ -21505,7 +21461,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1212</v>
       </c>
@@ -21528,7 +21484,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>1214</v>
       </c>
@@ -21551,7 +21507,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1214</v>
       </c>
@@ -21574,7 +21530,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>1216</v>
       </c>
@@ -21597,7 +21553,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>1218</v>
       </c>
@@ -21620,7 +21576,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>1220</v>
       </c>
@@ -21643,7 +21599,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>1222</v>
       </c>
@@ -21666,7 +21622,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>1224</v>
       </c>
@@ -21686,10 +21642,10 @@
         <v>988</v>
       </c>
       <c r="G682" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>1226</v>
       </c>
@@ -21712,7 +21668,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1228</v>
       </c>
@@ -21735,7 +21691,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1230</v>
       </c>
@@ -21758,7 +21714,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>1232</v>
       </c>
@@ -21777,11 +21733,11 @@
       <c r="F686">
         <v>1013</v>
       </c>
-      <c r="I686" t="s">
+      <c r="G686" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1234</v>
       </c>
@@ -21801,12 +21757,12 @@
         <v>1041</v>
       </c>
       <c r="G687" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A688" s="4" t="s">
-        <v>1800</v>
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A688" s="3" t="s">
+        <v>1798</v>
       </c>
       <c r="B688" t="s">
         <v>1236</v>
@@ -21827,7 +21783,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1237</v>
       </c>
@@ -21850,7 +21806,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1239</v>
       </c>
@@ -21873,7 +21829,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>1239</v>
       </c>
@@ -21896,7 +21852,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1241</v>
       </c>
@@ -21919,7 +21875,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>1243</v>
       </c>
@@ -21939,10 +21895,10 @@
         <v>1011</v>
       </c>
       <c r="G693" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>1245</v>
       </c>
@@ -21961,11 +21917,11 @@
       <c r="F694">
         <v>1015</v>
       </c>
-      <c r="I694" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G694" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>1247</v>
       </c>
@@ -21985,10 +21941,10 @@
         <v>1016</v>
       </c>
       <c r="G695" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1249</v>
       </c>
@@ -22011,7 +21967,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>1251</v>
       </c>
@@ -22030,11 +21986,11 @@
       <c r="F697">
         <v>1018</v>
       </c>
-      <c r="I697" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G697" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>1253</v>
       </c>
@@ -22057,7 +22013,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>1255</v>
       </c>
@@ -22080,7 +22036,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>1257</v>
       </c>
@@ -22103,7 +22059,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>1259</v>
       </c>
@@ -22126,7 +22082,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>1261</v>
       </c>
@@ -22149,7 +22105,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>1263</v>
       </c>
@@ -22172,7 +22128,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>1265</v>
       </c>
@@ -22195,7 +22151,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>1267</v>
       </c>
@@ -22218,7 +22174,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>1269</v>
       </c>
@@ -22241,7 +22197,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>1271</v>
       </c>
@@ -22261,10 +22217,10 @@
         <v>1028</v>
       </c>
       <c r="G707" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>1273</v>
       </c>
@@ -22287,7 +22243,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>1275</v>
       </c>
@@ -22307,10 +22263,10 @@
         <v>1030</v>
       </c>
       <c r="G709" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>1277</v>
       </c>
@@ -22330,10 +22286,10 @@
         <v>1031</v>
       </c>
       <c r="G710" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>1279</v>
       </c>
@@ -22356,7 +22312,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>1281</v>
       </c>
@@ -22379,7 +22335,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>1283</v>
       </c>
@@ -22402,7 +22358,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>1285</v>
       </c>
@@ -22425,7 +22381,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>1287</v>
       </c>
@@ -22448,7 +22404,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>1289</v>
       </c>
@@ -22468,15 +22424,15 @@
         <v>1038</v>
       </c>
       <c r="G716" t="s">
-        <v>1796</v>
-      </c>
-      <c r="K716" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J716" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A717" s="4" t="s">
-        <v>1801</v>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A717" s="3" t="s">
+        <v>1799</v>
       </c>
       <c r="B717" t="s">
         <v>1291</v>
@@ -22494,9 +22450,9 @@
         <v>807</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A718" s="4" t="s">
-        <v>1802</v>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A718" s="3" t="s">
+        <v>1800</v>
       </c>
       <c r="B718" t="s">
         <v>1292</v>
@@ -22514,9 +22470,9 @@
         <v>841</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A719" s="4" t="s">
-        <v>1803</v>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A719" s="3" t="s">
+        <v>1801</v>
       </c>
       <c r="B719" t="s">
         <v>1293</v>
@@ -22534,9 +22490,9 @@
         <v>843</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A720" s="4" t="s">
-        <v>1804</v>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A720" s="3" t="s">
+        <v>1802</v>
       </c>
       <c r="B720" t="s">
         <v>1294</v>
@@ -22556,7 +22512,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B721" t="s">
         <v>1295</v>
@@ -22576,7 +22532,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B722" t="s">
         <v>1296</v>
@@ -22596,7 +22552,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B723" t="s">
         <v>1297</v>
@@ -22616,7 +22572,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B724" t="s">
         <v>1298</v>
@@ -22636,7 +22592,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B725" t="s">
         <v>1299</v>
@@ -22656,7 +22612,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B726" t="s">
         <v>1300</v>
@@ -22676,7 +22632,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B727" t="s">
         <v>1301</v>
@@ -22696,7 +22652,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B728" t="s">
         <v>1302</v>
@@ -22716,7 +22672,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B729" t="s">
         <v>1303</v>
@@ -22736,7 +22692,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B730" t="s">
         <v>1304</v>
@@ -22756,7 +22712,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B731" t="s">
         <v>1305</v>
@@ -22776,7 +22732,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B732" t="s">
         <v>1306</v>
@@ -22796,7 +22752,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B733" t="s">
         <v>1307</v>
@@ -22816,7 +22772,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B734" t="s">
         <v>1308</v>
@@ -22836,7 +22792,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B735" t="s">
         <v>1309</v>
@@ -22856,7 +22812,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B736" t="s">
         <v>1310</v>
@@ -22876,7 +22832,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B737" t="s">
         <v>1311</v>
@@ -22896,7 +22852,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B738" t="s">
         <v>192</v>
@@ -22916,7 +22872,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B739" t="s">
         <v>1312</v>
@@ -22936,7 +22892,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B740" t="s">
         <v>1313</v>
@@ -22956,7 +22912,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B741" t="s">
         <v>1314</v>
@@ -22976,7 +22932,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B742" t="s">
         <v>1315</v>
@@ -22996,7 +22952,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B743" t="s">
         <v>1316</v>
@@ -23016,7 +22972,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B744" t="s">
         <v>1317</v>
@@ -23036,7 +22992,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B745" t="s">
         <v>1318</v>
@@ -23056,7 +23012,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B746" t="s">
         <v>1319</v>
@@ -23076,7 +23032,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B747" t="s">
         <v>1320</v>
@@ -23096,7 +23052,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B748" t="s">
         <v>1321</v>
@@ -23116,7 +23072,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B749" t="s">
         <v>1322</v>
@@ -23136,7 +23092,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B750" t="s">
         <v>1323</v>
@@ -23156,7 +23112,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B751" t="s">
         <v>1324</v>
@@ -23176,7 +23132,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B752" t="s">
         <v>1325</v>
@@ -23196,7 +23152,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B753" t="s">
         <v>1326</v>
@@ -23216,7 +23172,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B754" t="s">
         <v>1327</v>
@@ -23236,7 +23192,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B755" t="s">
         <v>1328</v>
@@ -23256,7 +23212,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B756" t="s">
         <v>1329</v>
@@ -23276,7 +23232,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B757" t="s">
         <v>1330</v>
@@ -23296,7 +23252,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B758" t="s">
         <v>1331</v>
@@ -23316,7 +23272,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B759" t="s">
         <v>1332</v>
@@ -23336,7 +23292,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B760" t="s">
         <v>1333</v>
@@ -23356,7 +23312,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B761" t="s">
         <v>1334</v>
@@ -23376,7 +23332,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B762" t="s">
         <v>1335</v>
@@ -23396,7 +23352,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B763" t="s">
         <v>1336</v>
@@ -23416,7 +23372,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B764" t="s">
         <v>1337</v>
@@ -23436,7 +23392,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B765" t="s">
         <v>1338</v>
@@ -23456,7 +23412,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B766" t="s">
         <v>1339</v>
@@ -23476,7 +23432,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B767" t="s">
         <v>1340</v>
@@ -23496,7 +23452,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B768" t="s">
         <v>1341</v>
@@ -23516,7 +23472,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B769" t="s">
         <v>1342</v>
@@ -23536,7 +23492,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B770" t="s">
         <v>1343</v>
@@ -23556,7 +23512,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B771" t="s">
         <v>1344</v>
@@ -23576,7 +23532,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B772" t="s">
         <v>1345</v>
@@ -23596,7 +23552,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B773" t="s">
         <v>1346</v>
@@ -23616,7 +23572,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B774" t="s">
         <v>1347</v>
@@ -23636,7 +23592,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B775" t="s">
         <v>1348</v>
@@ -23656,7 +23612,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B776" t="s">
         <v>1349</v>
@@ -23676,7 +23632,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B777" t="s">
         <v>1350</v>
@@ -23696,7 +23652,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B778" t="s">
         <v>1351</v>
@@ -23716,7 +23672,7 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B779" t="s">
         <v>1352</v>
@@ -23736,7 +23692,7 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B780" t="s">
         <v>1353</v>
@@ -23756,7 +23712,7 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B781" t="s">
         <v>1354</v>
@@ -23776,7 +23732,7 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B782" t="s">
         <v>1355</v>
@@ -23796,7 +23752,7 @@
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="B783" t="s">
         <v>1356</v>
@@ -23816,7 +23772,7 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B784" t="s">
         <v>1357</v>
@@ -23836,7 +23792,7 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B785" t="s">
         <v>1358</v>
@@ -23856,7 +23812,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B786" t="s">
         <v>1359</v>
@@ -23876,7 +23832,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B787" t="s">
         <v>1360</v>
@@ -23896,7 +23852,7 @@
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B788" t="s">
         <v>1361</v>
@@ -23916,7 +23872,7 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B789" t="s">
         <v>1362</v>
@@ -23936,7 +23892,7 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B790" t="s">
         <v>1363</v>
@@ -23956,7 +23912,7 @@
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B791" t="s">
         <v>1364</v>
@@ -23976,7 +23932,7 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B792" t="s">
         <v>1365</v>
@@ -23996,7 +23952,7 @@
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B793" t="s">
         <v>1366</v>
@@ -24016,7 +23972,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B794" t="s">
         <v>1367</v>
@@ -24036,7 +23992,7 @@
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B795" t="s">
         <v>1368</v>
@@ -24056,7 +24012,7 @@
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B796" t="s">
         <v>1369</v>
@@ -24076,7 +24032,7 @@
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B797" t="s">
         <v>1370</v>
@@ -24105,7 +24061,7 @@
     <hyperlink ref="G406" r:id="rId7" xr:uid="{61FBD632-B11B-754F-ABC0-DDF4039E7EBD}"/>
     <hyperlink ref="G475" r:id="rId8" xr:uid="{2BFCF764-541F-AC43-AAE8-A69A2EB7798D}"/>
     <hyperlink ref="G8" r:id="rId9" xr:uid="{163358AF-8C7D-4A41-B945-345ABB9FF9AB}"/>
-    <hyperlink ref="I16" r:id="rId10" xr:uid="{33021EE0-D670-6044-BF1D-7301ED4B2C59}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{33021EE0-D670-6044-BF1D-7301ED4B2C59}"/>
     <hyperlink ref="G51" r:id="rId11" xr:uid="{F15A5A23-72A5-D84E-B44F-73CFB16C9640}"/>
     <hyperlink ref="H70" r:id="rId12" xr:uid="{343C9776-0137-6D4D-8EBE-4E1EBE9D16A7}"/>
     <hyperlink ref="G111" r:id="rId13" xr:uid="{602D1D75-E851-5A45-B002-37361AAA540B}"/>
